--- a/Gantt chart- Assignment 1 - Ben Ho.xlsx
+++ b/Gantt chart- Assignment 1 - Ben Ho.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benho/Desktop/MSc Data Science/CETM46/Lectures/Session 3 - Data Science Project Management &amp; Ethics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benho/Desktop/MSc Data Science/CETM46/github/product_design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF9562E-0756-774A-9FDA-364126CB86BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCFDB80-03DB-1B41-86FC-959A7DEB1DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
   <si>
     <t>Smartsheet Tip ➜</t>
   </si>
@@ -59,9 +59,6 @@
     <t>TASK TITLE</t>
   </si>
   <si>
-    <t>TASK OWNER</t>
-  </si>
-  <si>
     <t>START DATE</t>
   </si>
   <si>
@@ -90,12 +87,6 @@
   </si>
   <si>
     <t>Research</t>
-  </si>
-  <si>
-    <t>Ben Ho - Assignment 1</t>
-  </si>
-  <si>
-    <t>Ben Ho</t>
   </si>
   <si>
     <t>University of Sunderland</t>
@@ -941,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1174,6 +1165,48 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1181,10 +1214,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1197,50 +1226,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2420,11 +2405,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BS31"/>
+  <dimension ref="A1:BR31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D3" sqref="D3"/>
+      <pane xSplit="8" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AW22" sqref="AW22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2433,32 +2418,31 @@
     <col min="2" max="2" width="8" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
-    <col min="10" max="70" width="3.5" style="1" customWidth="1"/>
-    <col min="71" max="71" width="3.83203125" style="1" customWidth="1"/>
-    <col min="72" max="72" width="14.5" style="1" customWidth="1"/>
-    <col min="73" max="16384" width="14.5" style="1"/>
+    <col min="5" max="6" width="12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
+    <col min="9" max="69" width="3.5" style="1" customWidth="1"/>
+    <col min="70" max="70" width="3.83203125" style="1" customWidth="1"/>
+    <col min="71" max="71" width="14.5" style="1" customWidth="1"/>
+    <col min="72" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="8"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="9"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
+      <c r="O1" s="8"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
@@ -2481,7 +2465,7 @@
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
       <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
+      <c r="AL1" s="10"/>
       <c r="AM1" s="10"/>
       <c r="AN1" s="10"/>
       <c r="AO1" s="10"/>
@@ -2489,7 +2473,7 @@
       <c r="AQ1" s="10"/>
       <c r="AR1" s="10"/>
       <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
+      <c r="AT1" s="8"/>
       <c r="AU1" s="8"/>
       <c r="AV1" s="8"/>
       <c r="AW1" s="8"/>
@@ -2513,62 +2497,61 @@
       <c r="BO1" s="8"/>
       <c r="BP1" s="8"/>
       <c r="BQ1" s="8"/>
-      <c r="BR1" s="8"/>
-      <c r="BS1" s="11"/>
+      <c r="BR1" s="11"/>
     </row>
-    <row r="2" spans="1:71" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:70" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12"/>
-      <c r="B2" s="84" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="82" t="s">
+      <c r="B2" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="88" t="s">
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="83"/>
-      <c r="AJ2" s="83"/>
-      <c r="AK2" s="83"/>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="83"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="99"/>
+      <c r="AG2" s="99"/>
+      <c r="AH2" s="99"/>
+      <c r="AI2" s="99"/>
+      <c r="AJ2" s="99"/>
+      <c r="AK2" s="99"/>
+      <c r="AL2" s="99"/>
+      <c r="AM2" s="14"/>
       <c r="AN2" s="14"/>
       <c r="AO2" s="14"/>
       <c r="AP2" s="14"/>
       <c r="AQ2" s="14"/>
       <c r="AR2" s="14"/>
       <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
+      <c r="AT2" s="15"/>
       <c r="AU2" s="15"/>
       <c r="AV2" s="15"/>
       <c r="AW2" s="15"/>
@@ -2592,10 +2575,9 @@
       <c r="BO2" s="15"/>
       <c r="BP2" s="15"/>
       <c r="BQ2" s="15"/>
-      <c r="BR2" s="15"/>
-      <c r="BS2" s="16"/>
+      <c r="BR2" s="16"/>
     </row>
-    <row r="3" spans="1:71" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -2604,7 +2586,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="I3" s="19"/>
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
@@ -2613,7 +2595,7 @@
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
+      <c r="R3" s="20"/>
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
@@ -2633,15 +2615,15 @@
       <c r="AI3" s="20"/>
       <c r="AJ3" s="20"/>
       <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="22"/>
       <c r="AN3" s="22"/>
       <c r="AO3" s="22"/>
       <c r="AP3" s="22"/>
       <c r="AQ3" s="22"/>
       <c r="AR3" s="22"/>
       <c r="AS3" s="22"/>
-      <c r="AT3" s="22"/>
+      <c r="AT3" s="15"/>
       <c r="AU3" s="15"/>
       <c r="AV3" s="15"/>
       <c r="AW3" s="15"/>
@@ -2665,56 +2647,53 @@
       <c r="BO3" s="15"/>
       <c r="BP3" s="15"/>
       <c r="BQ3" s="15"/>
-      <c r="BR3" s="15"/>
-      <c r="BS3" s="16"/>
+      <c r="BR3" s="16"/>
     </row>
-    <row r="4" spans="1:71" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="90"/>
+      <c r="C4" s="104"/>
       <c r="D4" s="23"/>
-      <c r="E4" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="89" t="s">
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="91" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="90"/>
-      <c r="AL4" s="25"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="104"/>
+      <c r="X4" s="104"/>
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="104"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="22"/>
       <c r="AM4" s="22"/>
       <c r="AN4" s="22"/>
       <c r="AO4" s="22"/>
@@ -2722,7 +2701,7 @@
       <c r="AQ4" s="22"/>
       <c r="AR4" s="22"/>
       <c r="AS4" s="22"/>
-      <c r="AT4" s="22"/>
+      <c r="AT4" s="15"/>
       <c r="AU4" s="15"/>
       <c r="AV4" s="15"/>
       <c r="AW4" s="15"/>
@@ -2746,64 +2725,61 @@
       <c r="BO4" s="15"/>
       <c r="BP4" s="15"/>
       <c r="BQ4" s="15"/>
-      <c r="BR4" s="15"/>
-      <c r="BS4" s="16"/>
+      <c r="BR4" s="16"/>
     </row>
-    <row r="5" spans="1:71" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="86"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="26"/>
-      <c r="E5" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="85" t="s">
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87">
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="101">
         <v>44863</v>
       </c>
-      <c r="T5" s="86"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
-      <c r="W5" s="86"/>
-      <c r="X5" s="86"/>
-      <c r="Y5" s="86"/>
-      <c r="Z5" s="86"/>
-      <c r="AA5" s="86"/>
-      <c r="AB5" s="86"/>
-      <c r="AC5" s="86"/>
-      <c r="AD5" s="86"/>
-      <c r="AE5" s="86"/>
-      <c r="AF5" s="86"/>
-      <c r="AG5" s="86"/>
-      <c r="AH5" s="86"/>
-      <c r="AI5" s="86"/>
-      <c r="AJ5" s="86"/>
-      <c r="AK5" s="27"/>
-      <c r="AL5" s="25"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="88"/>
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="88"/>
+      <c r="AF5" s="88"/>
+      <c r="AG5" s="88"/>
+      <c r="AH5" s="88"/>
+      <c r="AI5" s="88"/>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="15"/>
       <c r="AM5" s="15"/>
       <c r="AN5" s="15"/>
       <c r="AO5" s="15"/>
       <c r="AP5" s="15"/>
       <c r="AQ5" s="15"/>
       <c r="AR5" s="15"/>
-      <c r="AS5" s="15"/>
-      <c r="AT5" s="28"/>
+      <c r="AS5" s="28"/>
+      <c r="AT5" s="15"/>
       <c r="AU5" s="15"/>
       <c r="AV5" s="15"/>
       <c r="AW5" s="15"/>
@@ -2827,19 +2803,18 @@
       <c r="BO5" s="15"/>
       <c r="BP5" s="15"/>
       <c r="BQ5" s="15"/>
-      <c r="BR5" s="15"/>
-      <c r="BS5" s="16"/>
+      <c r="BR5" s="16"/>
     </row>
-    <row r="6" spans="1:71" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="30"/>
@@ -2867,7 +2842,7 @@
       <c r="AH6" s="30"/>
       <c r="AI6" s="30"/>
       <c r="AJ6" s="30"/>
-      <c r="AK6" s="30"/>
+      <c r="AK6" s="33"/>
       <c r="AL6" s="33"/>
       <c r="AM6" s="33"/>
       <c r="AN6" s="33"/>
@@ -2900,19 +2875,18 @@
       <c r="BO6" s="33"/>
       <c r="BP6" s="33"/>
       <c r="BQ6" s="33"/>
-      <c r="BR6" s="33"/>
-      <c r="BS6" s="34"/>
+      <c r="BR6" s="34"/>
     </row>
-    <row r="7" spans="1:71" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="29"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
+      <c r="G7" s="32"/>
       <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
@@ -2973,410 +2947,404 @@
       <c r="BO7" s="33"/>
       <c r="BP7" s="33"/>
       <c r="BQ7" s="33"/>
-      <c r="BR7" s="33"/>
-      <c r="BS7" s="34"/>
+      <c r="BR7" s="34"/>
     </row>
-    <row r="8" spans="1:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29"/>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="94" t="s">
+      <c r="D8" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="94" t="s">
+      <c r="F8" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="94" t="s">
+      <c r="G8" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="94" t="s">
+      <c r="H8" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="96" t="s">
+      <c r="I8" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="91"/>
+      <c r="X8" s="91"/>
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="91"/>
+      <c r="AC8" s="91"/>
+      <c r="AD8" s="91"/>
+      <c r="AE8" s="91"/>
+      <c r="AF8" s="91"/>
+      <c r="AG8" s="91"/>
+      <c r="AH8" s="91"/>
+      <c r="AI8" s="91"/>
+      <c r="AJ8" s="91"/>
+      <c r="AK8" s="91"/>
+      <c r="AL8" s="91"/>
+      <c r="AM8" s="96" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN8" s="96"/>
+      <c r="AO8" s="96"/>
+      <c r="AP8" s="96"/>
+      <c r="AQ8" s="96"/>
+      <c r="AR8" s="96"/>
+      <c r="AS8" s="96"/>
+      <c r="AT8" s="96"/>
+      <c r="AU8" s="96"/>
+      <c r="AV8" s="96"/>
+      <c r="AW8" s="96"/>
+      <c r="AX8" s="96"/>
+      <c r="AY8" s="96"/>
+      <c r="AZ8" s="96"/>
+      <c r="BA8" s="96"/>
+      <c r="BB8" s="96"/>
+      <c r="BC8" s="96"/>
+      <c r="BD8" s="96"/>
+      <c r="BE8" s="96"/>
+      <c r="BF8" s="96"/>
+      <c r="BG8" s="96"/>
+      <c r="BH8" s="96"/>
+      <c r="BI8" s="96"/>
+      <c r="BJ8" s="96"/>
+      <c r="BK8" s="96"/>
+      <c r="BL8" s="96"/>
+      <c r="BM8" s="96"/>
+      <c r="BN8" s="96"/>
+      <c r="BO8" s="96"/>
+      <c r="BP8" s="96"/>
+      <c r="BQ8" s="97"/>
+      <c r="BR8" s="35"/>
+    </row>
+    <row r="9" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="36"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="106" t="s">
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="92" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC9" s="92"/>
+      <c r="AD9" s="92"/>
+      <c r="AE9" s="92"/>
+      <c r="AF9" s="92"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ9" s="92"/>
+      <c r="AK9" s="92"/>
+      <c r="AL9" s="92"/>
+      <c r="AM9" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN9" s="94"/>
+      <c r="AO9" s="95"/>
+      <c r="AP9" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ9" s="94"/>
+      <c r="AR9" s="94"/>
+      <c r="AS9" s="94"/>
+      <c r="AT9" s="94"/>
+      <c r="AU9" s="94"/>
+      <c r="AV9" s="95"/>
+      <c r="AW9" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX9" s="94"/>
+      <c r="AY9" s="94"/>
+      <c r="AZ9" s="94"/>
+      <c r="BA9" s="94"/>
+      <c r="BB9" s="94"/>
+      <c r="BC9" s="95"/>
+      <c r="BD9" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE9" s="94"/>
+      <c r="BF9" s="94"/>
+      <c r="BG9" s="94"/>
+      <c r="BH9" s="94"/>
+      <c r="BI9" s="94"/>
+      <c r="BJ9" s="95"/>
+      <c r="BK9" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="BL9" s="94"/>
+      <c r="BM9" s="94"/>
+      <c r="BN9" s="94"/>
+      <c r="BO9" s="94"/>
+      <c r="BP9" s="94"/>
+      <c r="BQ9" s="95"/>
+      <c r="BR9" s="37"/>
+    </row>
+    <row r="10" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="38"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
-      <c r="Y8" s="104"/>
-      <c r="Z8" s="104"/>
-      <c r="AA8" s="104"/>
-      <c r="AB8" s="104"/>
-      <c r="AC8" s="104"/>
-      <c r="AD8" s="104"/>
-      <c r="AE8" s="104"/>
-      <c r="AF8" s="104"/>
-      <c r="AG8" s="104"/>
-      <c r="AH8" s="104"/>
-      <c r="AI8" s="104"/>
-      <c r="AJ8" s="104"/>
-      <c r="AK8" s="104"/>
-      <c r="AL8" s="104"/>
-      <c r="AM8" s="104"/>
-      <c r="AN8" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO8" s="99"/>
-      <c r="AP8" s="99"/>
-      <c r="AQ8" s="99"/>
-      <c r="AR8" s="99"/>
-      <c r="AS8" s="99"/>
-      <c r="AT8" s="99"/>
-      <c r="AU8" s="99"/>
-      <c r="AV8" s="99"/>
-      <c r="AW8" s="99"/>
-      <c r="AX8" s="99"/>
-      <c r="AY8" s="99"/>
-      <c r="AZ8" s="99"/>
-      <c r="BA8" s="99"/>
-      <c r="BB8" s="99"/>
-      <c r="BC8" s="99"/>
-      <c r="BD8" s="99"/>
-      <c r="BE8" s="99"/>
-      <c r="BF8" s="99"/>
-      <c r="BG8" s="99"/>
-      <c r="BH8" s="99"/>
-      <c r="BI8" s="99"/>
-      <c r="BJ8" s="99"/>
-      <c r="BK8" s="99"/>
-      <c r="BL8" s="99"/>
-      <c r="BM8" s="99"/>
-      <c r="BN8" s="99"/>
-      <c r="BO8" s="99"/>
-      <c r="BP8" s="99"/>
-      <c r="BQ8" s="99"/>
-      <c r="BR8" s="100"/>
-      <c r="BS8" s="35"/>
+      <c r="L10" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="83" t="s">
+        <v>48</v>
+      </c>
+      <c r="R10" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="S10" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="U10" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="V10" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="W10" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="X10" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y10" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z10" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA10" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB10" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC10" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD10" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE10" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF10" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG10" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH10" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI10" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ10" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK10" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL10" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM10" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN10" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO10" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP10" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ10" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR10" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS10" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT10" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU10" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV10" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW10" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX10" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY10" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ10" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="BA10" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB10" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC10" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD10" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE10" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF10" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG10" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="BH10" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="BI10" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ10" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="BK10" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL10" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="BM10" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN10" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="BO10" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="BP10" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="BQ10" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR10" s="40"/>
     </row>
-    <row r="9" spans="1:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="36"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107" t="s">
-        <v>14</v>
-      </c>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="107"/>
-      <c r="U9" s="107"/>
-      <c r="V9" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="W9" s="107"/>
-      <c r="X9" s="107"/>
-      <c r="Y9" s="107"/>
-      <c r="Z9" s="107"/>
-      <c r="AA9" s="107"/>
-      <c r="AB9" s="107"/>
-      <c r="AC9" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD9" s="107"/>
-      <c r="AE9" s="107"/>
-      <c r="AF9" s="107"/>
-      <c r="AG9" s="107"/>
-      <c r="AH9" s="107"/>
-      <c r="AI9" s="107"/>
-      <c r="AJ9" s="107" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK9" s="107"/>
-      <c r="AL9" s="107"/>
-      <c r="AM9" s="107"/>
-      <c r="AN9" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO9" s="101"/>
-      <c r="AP9" s="102"/>
-      <c r="AQ9" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="AR9" s="101"/>
-      <c r="AS9" s="101"/>
-      <c r="AT9" s="101"/>
-      <c r="AU9" s="101"/>
-      <c r="AV9" s="101"/>
-      <c r="AW9" s="102"/>
-      <c r="AX9" s="93" t="s">
-        <v>15</v>
-      </c>
-      <c r="AY9" s="101"/>
-      <c r="AZ9" s="101"/>
-      <c r="BA9" s="101"/>
-      <c r="BB9" s="101"/>
-      <c r="BC9" s="101"/>
-      <c r="BD9" s="102"/>
-      <c r="BE9" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="BF9" s="101"/>
-      <c r="BG9" s="101"/>
-      <c r="BH9" s="101"/>
-      <c r="BI9" s="101"/>
-      <c r="BJ9" s="101"/>
-      <c r="BK9" s="102"/>
-      <c r="BL9" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="BM9" s="101"/>
-      <c r="BN9" s="101"/>
-      <c r="BO9" s="101"/>
-      <c r="BP9" s="101"/>
-      <c r="BQ9" s="101"/>
-      <c r="BR9" s="102"/>
-      <c r="BS9" s="37"/>
-    </row>
-    <row r="10" spans="1:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="38"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="105" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="105" t="s">
-        <v>47</v>
-      </c>
-      <c r="O10" s="105" t="s">
-        <v>48</v>
-      </c>
-      <c r="P10" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q10" s="105" t="s">
-        <v>50</v>
-      </c>
-      <c r="R10" s="105" t="s">
-        <v>51</v>
-      </c>
-      <c r="S10" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="T10" s="105" t="s">
-        <v>53</v>
-      </c>
-      <c r="U10" s="105" t="s">
-        <v>54</v>
-      </c>
-      <c r="V10" s="105" t="s">
-        <v>55</v>
-      </c>
-      <c r="W10" s="105" t="s">
-        <v>56</v>
-      </c>
-      <c r="X10" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y10" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z10" s="105" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA10" s="105" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB10" s="105" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC10" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD10" s="105" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE10" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF10" s="105" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG10" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH10" s="105" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI10" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ10" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK10" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL10" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM10" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN10" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO10" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP10" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ10" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR10" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS10" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT10" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU10" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV10" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW10" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX10" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY10" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="AZ10" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="BA10" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB10" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC10" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD10" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE10" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF10" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="BG10" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="BH10" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="BI10" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="BJ10" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="BK10" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="BL10" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM10" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="BN10" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="BO10" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP10" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="BQ10" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="BR10" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="BS10" s="40"/>
-    </row>
-    <row r="11" spans="1:71" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="29"/>
       <c r="B11" s="41">
         <v>1</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="43"/>
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="46"/>
       <c r="L11" s="46"/>
       <c r="M11" s="46"/>
       <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
+      <c r="O11" s="44"/>
       <c r="P11" s="44"/>
       <c r="Q11" s="44"/>
       <c r="R11" s="44"/>
@@ -3431,43 +3399,40 @@
       <c r="BO11" s="44"/>
       <c r="BP11" s="44"/>
       <c r="BQ11" s="44"/>
-      <c r="BR11" s="44"/>
-      <c r="BS11" s="34"/>
+      <c r="BR11" s="34"/>
     </row>
-    <row r="12" spans="1:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="47"/>
       <c r="B12" s="48">
         <v>1.1000000000000001</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="E12" s="50">
+        <v>44866</v>
       </c>
       <c r="F12" s="50">
-        <v>44866</v>
-      </c>
-      <c r="G12" s="50">
         <v>44870</v>
       </c>
-      <c r="H12" s="51">
-        <f t="shared" ref="H12:H28" si="0">DAYS360(F12,G12)</f>
+      <c r="G12" s="51">
+        <f t="shared" ref="G12:G28" si="0">DAYS360(E12,F12)</f>
         <v>4</v>
       </c>
-      <c r="I12" s="52">
+      <c r="H12" s="52">
         <v>0</v>
       </c>
+      <c r="I12" s="56"/>
       <c r="J12" s="56"/>
       <c r="K12" s="56"/>
       <c r="L12" s="56"/>
       <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
+      <c r="N12" s="65"/>
       <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
+      <c r="P12" s="55"/>
       <c r="Q12" s="55"/>
       <c r="R12" s="55"/>
       <c r="S12" s="55"/>
@@ -3521,50 +3486,47 @@
       <c r="BO12" s="55"/>
       <c r="BP12" s="55"/>
       <c r="BQ12" s="55"/>
-      <c r="BR12" s="55"/>
-      <c r="BS12" s="57"/>
+      <c r="BR12" s="57"/>
     </row>
-    <row r="13" spans="1:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="47"/>
       <c r="B13" s="58" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D13" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>20</v>
+        <v>74</v>
+      </c>
+      <c r="E13" s="60">
+        <v>44871</v>
       </c>
       <c r="F13" s="60">
-        <v>44871</v>
-      </c>
-      <c r="G13" s="60">
         <v>44875</v>
       </c>
-      <c r="H13" s="61">
+      <c r="G13" s="61">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I13" s="62">
+      <c r="H13" s="62">
         <v>0</v>
       </c>
-      <c r="J13" s="63"/>
-      <c r="K13" s="64"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="65"/>
       <c r="L13" s="65"/>
       <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
+      <c r="N13" s="66"/>
       <c r="O13" s="66"/>
       <c r="P13" s="66"/>
       <c r="Q13" s="66"/>
       <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
+      <c r="S13" s="55"/>
       <c r="T13" s="55"/>
       <c r="U13" s="55"/>
       <c r="V13" s="55"/>
-      <c r="W13" s="55"/>
+      <c r="W13" s="65"/>
       <c r="X13" s="65"/>
       <c r="Y13" s="65"/>
       <c r="Z13" s="65"/>
@@ -3578,13 +3540,13 @@
       <c r="AH13" s="65"/>
       <c r="AI13" s="65"/>
       <c r="AJ13" s="65"/>
-      <c r="AK13" s="65"/>
+      <c r="AK13" s="55"/>
       <c r="AL13" s="55"/>
       <c r="AM13" s="55"/>
       <c r="AN13" s="55"/>
       <c r="AO13" s="55"/>
       <c r="AP13" s="55"/>
-      <c r="AQ13" s="55"/>
+      <c r="AQ13" s="65"/>
       <c r="AR13" s="65"/>
       <c r="AS13" s="65"/>
       <c r="AT13" s="65"/>
@@ -3592,12 +3554,12 @@
       <c r="AV13" s="65"/>
       <c r="AW13" s="65"/>
       <c r="AX13" s="65"/>
-      <c r="AY13" s="65"/>
+      <c r="AY13" s="55"/>
       <c r="AZ13" s="55"/>
       <c r="BA13" s="55"/>
       <c r="BB13" s="55"/>
       <c r="BC13" s="55"/>
-      <c r="BD13" s="55"/>
+      <c r="BD13" s="65"/>
       <c r="BE13" s="65"/>
       <c r="BF13" s="65"/>
       <c r="BG13" s="65"/>
@@ -3607,54 +3569,51 @@
       <c r="BK13" s="65"/>
       <c r="BL13" s="65"/>
       <c r="BM13" s="65"/>
-      <c r="BN13" s="65"/>
+      <c r="BN13" s="55"/>
       <c r="BO13" s="55"/>
       <c r="BP13" s="55"/>
       <c r="BQ13" s="55"/>
-      <c r="BR13" s="55"/>
-      <c r="BS13" s="57"/>
+      <c r="BR13" s="57"/>
     </row>
-    <row r="14" spans="1:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="47"/>
       <c r="B14" s="67">
         <v>1.3</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D14" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>20</v>
+        <v>75</v>
+      </c>
+      <c r="E14" s="60">
+        <v>44876</v>
       </c>
       <c r="F14" s="60">
-        <v>44876</v>
-      </c>
-      <c r="G14" s="60">
         <v>44878</v>
       </c>
-      <c r="H14" s="61">
+      <c r="G14" s="61">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I14" s="62">
+      <c r="H14" s="62">
         <v>0</v>
       </c>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="65"/>
       <c r="L14" s="65"/>
       <c r="M14" s="65"/>
       <c r="N14" s="65"/>
       <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
+      <c r="P14" s="55"/>
       <c r="Q14" s="55"/>
       <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
+      <c r="S14" s="66"/>
       <c r="T14" s="66"/>
       <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="65"/>
       <c r="X14" s="65"/>
       <c r="Y14" s="65"/>
       <c r="Z14" s="65"/>
@@ -3668,13 +3627,13 @@
       <c r="AH14" s="65"/>
       <c r="AI14" s="65"/>
       <c r="AJ14" s="65"/>
-      <c r="AK14" s="65"/>
+      <c r="AK14" s="55"/>
       <c r="AL14" s="55"/>
       <c r="AM14" s="55"/>
       <c r="AN14" s="55"/>
       <c r="AO14" s="55"/>
       <c r="AP14" s="55"/>
-      <c r="AQ14" s="55"/>
+      <c r="AQ14" s="65"/>
       <c r="AR14" s="65"/>
       <c r="AS14" s="65"/>
       <c r="AT14" s="65"/>
@@ -3682,12 +3641,12 @@
       <c r="AV14" s="65"/>
       <c r="AW14" s="65"/>
       <c r="AX14" s="65"/>
-      <c r="AY14" s="65"/>
+      <c r="AY14" s="55"/>
       <c r="AZ14" s="55"/>
       <c r="BA14" s="55"/>
       <c r="BB14" s="55"/>
       <c r="BC14" s="55"/>
-      <c r="BD14" s="55"/>
+      <c r="BD14" s="65"/>
       <c r="BE14" s="65"/>
       <c r="BF14" s="65"/>
       <c r="BG14" s="65"/>
@@ -3697,33 +3656,32 @@
       <c r="BK14" s="65"/>
       <c r="BL14" s="65"/>
       <c r="BM14" s="65"/>
-      <c r="BN14" s="65"/>
+      <c r="BN14" s="55"/>
       <c r="BO14" s="55"/>
       <c r="BP14" s="55"/>
       <c r="BQ14" s="55"/>
-      <c r="BR14" s="55"/>
-      <c r="BS14" s="57"/>
+      <c r="BR14" s="57"/>
     </row>
-    <row r="15" spans="1:71" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="29"/>
       <c r="B15" s="41">
         <v>2</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="43"/>
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="45"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
       <c r="L15" s="46"/>
       <c r="M15" s="46"/>
       <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
+      <c r="O15" s="44"/>
       <c r="P15" s="44"/>
       <c r="Q15" s="44"/>
       <c r="R15" s="44"/>
@@ -3778,38 +3736,35 @@
       <c r="BO15" s="44"/>
       <c r="BP15" s="44"/>
       <c r="BQ15" s="44"/>
-      <c r="BR15" s="44"/>
-      <c r="BS15" s="34"/>
+      <c r="BR15" s="34"/>
     </row>
-    <row r="16" spans="1:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="47"/>
       <c r="B16" s="48">
         <v>2.1</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="49" t="s">
-        <v>20</v>
+        <v>74</v>
+      </c>
+      <c r="E16" s="50">
+        <v>44879</v>
       </c>
       <c r="F16" s="50">
-        <v>44879</v>
-      </c>
-      <c r="G16" s="50">
         <v>44885</v>
       </c>
-      <c r="H16" s="61">
+      <c r="G16" s="61">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I16" s="52">
+      <c r="H16" s="52">
         <v>0</v>
       </c>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="55"/>
       <c r="L16" s="55"/>
       <c r="M16" s="55"/>
       <c r="N16" s="55"/>
@@ -3820,21 +3775,21 @@
       <c r="S16" s="55"/>
       <c r="T16" s="55"/>
       <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
+      <c r="V16" s="66"/>
       <c r="W16" s="66"/>
       <c r="X16" s="66"/>
       <c r="Y16" s="66"/>
       <c r="Z16" s="66"/>
       <c r="AA16" s="66"/>
       <c r="AB16" s="66"/>
-      <c r="AC16" s="66"/>
+      <c r="AC16" s="65"/>
       <c r="AD16" s="65"/>
       <c r="AE16" s="65"/>
       <c r="AF16" s="65"/>
       <c r="AG16" s="65"/>
       <c r="AH16" s="65"/>
       <c r="AI16" s="65"/>
-      <c r="AJ16" s="65"/>
+      <c r="AJ16" s="55"/>
       <c r="AK16" s="55"/>
       <c r="AL16" s="55"/>
       <c r="AM16" s="55"/>
@@ -3868,69 +3823,66 @@
       <c r="BO16" s="55"/>
       <c r="BP16" s="55"/>
       <c r="BQ16" s="55"/>
-      <c r="BR16" s="55"/>
-      <c r="BS16" s="57"/>
+      <c r="BR16" s="57"/>
     </row>
-    <row r="17" spans="1:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="47"/>
       <c r="B17" s="67">
         <v>2.2000000000000002</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D17" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="59" t="s">
-        <v>20</v>
+        <v>76</v>
+      </c>
+      <c r="E17" s="60">
+        <v>44886</v>
       </c>
       <c r="F17" s="60">
-        <v>44886</v>
-      </c>
-      <c r="G17" s="60">
         <v>44890</v>
       </c>
-      <c r="H17" s="61">
+      <c r="G17" s="61">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I17" s="62">
+      <c r="H17" s="62">
         <v>0</v>
       </c>
-      <c r="J17" s="63"/>
-      <c r="K17" s="64"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="65"/>
       <c r="L17" s="65"/>
       <c r="M17" s="65"/>
       <c r="N17" s="65"/>
       <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
+      <c r="P17" s="55"/>
       <c r="Q17" s="55"/>
       <c r="R17" s="55"/>
       <c r="S17" s="55"/>
       <c r="T17" s="55"/>
       <c r="U17" s="55"/>
       <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
+      <c r="W17" s="65"/>
       <c r="X17" s="65"/>
       <c r="Y17" s="65"/>
       <c r="Z17" s="65"/>
       <c r="AA17" s="65"/>
       <c r="AB17" s="65"/>
-      <c r="AC17" s="65"/>
+      <c r="AC17" s="66"/>
       <c r="AD17" s="66"/>
       <c r="AE17" s="66"/>
       <c r="AF17" s="66"/>
       <c r="AG17" s="66"/>
-      <c r="AH17" s="66"/>
+      <c r="AH17" s="65"/>
       <c r="AI17" s="65"/>
-      <c r="AJ17" s="65"/>
+      <c r="AJ17" s="55"/>
       <c r="AK17" s="55"/>
       <c r="AL17" s="55"/>
       <c r="AM17" s="55"/>
       <c r="AN17" s="55"/>
       <c r="AO17" s="55"/>
-      <c r="AP17" s="55"/>
+      <c r="AP17" s="65"/>
       <c r="AQ17" s="65"/>
       <c r="AR17" s="65"/>
       <c r="AS17" s="65"/>
@@ -3939,12 +3891,12 @@
       <c r="AV17" s="65"/>
       <c r="AW17" s="65"/>
       <c r="AX17" s="65"/>
-      <c r="AY17" s="65"/>
+      <c r="AY17" s="55"/>
       <c r="AZ17" s="55"/>
       <c r="BA17" s="55"/>
       <c r="BB17" s="55"/>
       <c r="BC17" s="55"/>
-      <c r="BD17" s="55"/>
+      <c r="BD17" s="65"/>
       <c r="BE17" s="65"/>
       <c r="BF17" s="65"/>
       <c r="BG17" s="65"/>
@@ -3954,54 +3906,51 @@
       <c r="BK17" s="65"/>
       <c r="BL17" s="65"/>
       <c r="BM17" s="65"/>
-      <c r="BN17" s="65"/>
+      <c r="BN17" s="55"/>
       <c r="BO17" s="55"/>
       <c r="BP17" s="55"/>
       <c r="BQ17" s="55"/>
-      <c r="BR17" s="55"/>
-      <c r="BS17" s="57"/>
+      <c r="BR17" s="57"/>
     </row>
-    <row r="18" spans="1:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="47"/>
       <c r="B18" s="67">
         <v>2.2999999999999998</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>20</v>
+        <v>77</v>
+      </c>
+      <c r="E18" s="60">
+        <v>44891</v>
       </c>
       <c r="F18" s="60">
-        <v>44891</v>
-      </c>
-      <c r="G18" s="60">
         <v>44892</v>
       </c>
-      <c r="H18" s="61">
+      <c r="G18" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I18" s="62">
+      <c r="H18" s="62">
         <v>0</v>
       </c>
-      <c r="J18" s="63"/>
-      <c r="K18" s="64"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="65"/>
       <c r="L18" s="65"/>
       <c r="M18" s="65"/>
       <c r="N18" s="65"/>
       <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
+      <c r="P18" s="55"/>
       <c r="Q18" s="55"/>
       <c r="R18" s="55"/>
       <c r="S18" s="55"/>
       <c r="T18" s="55"/>
       <c r="U18" s="55"/>
       <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
+      <c r="W18" s="65"/>
       <c r="X18" s="65"/>
       <c r="Y18" s="65"/>
       <c r="Z18" s="65"/>
@@ -4012,15 +3961,15 @@
       <c r="AE18" s="65"/>
       <c r="AF18" s="65"/>
       <c r="AG18" s="65"/>
-      <c r="AH18" s="65"/>
+      <c r="AH18" s="66"/>
       <c r="AI18" s="66"/>
-      <c r="AJ18" s="66"/>
+      <c r="AJ18" s="55"/>
       <c r="AK18" s="55"/>
       <c r="AL18" s="55"/>
       <c r="AM18" s="55"/>
       <c r="AN18" s="55"/>
       <c r="AO18" s="55"/>
-      <c r="AP18" s="55"/>
+      <c r="AP18" s="65"/>
       <c r="AQ18" s="65"/>
       <c r="AR18" s="65"/>
       <c r="AS18" s="65"/>
@@ -4029,12 +3978,12 @@
       <c r="AV18" s="65"/>
       <c r="AW18" s="65"/>
       <c r="AX18" s="65"/>
-      <c r="AY18" s="65"/>
+      <c r="AY18" s="55"/>
       <c r="AZ18" s="55"/>
       <c r="BA18" s="55"/>
       <c r="BB18" s="55"/>
       <c r="BC18" s="55"/>
-      <c r="BD18" s="55"/>
+      <c r="BD18" s="65"/>
       <c r="BE18" s="65"/>
       <c r="BF18" s="65"/>
       <c r="BG18" s="65"/>
@@ -4044,41 +3993,40 @@
       <c r="BK18" s="65"/>
       <c r="BL18" s="65"/>
       <c r="BM18" s="65"/>
-      <c r="BN18" s="65"/>
+      <c r="BN18" s="55"/>
       <c r="BO18" s="55"/>
       <c r="BP18" s="55"/>
       <c r="BQ18" s="55"/>
-      <c r="BR18" s="55"/>
-      <c r="BS18" s="57"/>
+      <c r="BR18" s="57"/>
     </row>
-    <row r="19" spans="1:71" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="29"/>
       <c r="B19" s="68">
         <v>3</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D19" s="69"/>
       <c r="E19" s="70"/>
       <c r="F19" s="70"/>
       <c r="G19" s="70"/>
       <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="72"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="73"/>
       <c r="L19" s="73"/>
       <c r="M19" s="73"/>
       <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="74"/>
       <c r="Q19" s="74"/>
       <c r="R19" s="74"/>
       <c r="S19" s="74"/>
       <c r="T19" s="74"/>
       <c r="U19" s="74"/>
       <c r="V19" s="74"/>
-      <c r="W19" s="74"/>
+      <c r="W19" s="71"/>
       <c r="X19" s="71"/>
       <c r="Y19" s="71"/>
       <c r="Z19" s="71"/>
@@ -4125,38 +4073,35 @@
       <c r="BO19" s="71"/>
       <c r="BP19" s="71"/>
       <c r="BQ19" s="71"/>
-      <c r="BR19" s="71"/>
-      <c r="BS19" s="34"/>
+      <c r="BR19" s="34"/>
     </row>
-    <row r="20" spans="1:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="47"/>
       <c r="B20" s="48">
         <v>3.1</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>20</v>
+        <v>78</v>
+      </c>
+      <c r="E20" s="50">
+        <v>44893</v>
       </c>
       <c r="F20" s="50">
-        <v>44893</v>
-      </c>
-      <c r="G20" s="50">
         <v>44895</v>
       </c>
-      <c r="H20" s="61">
+      <c r="G20" s="61">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I20" s="52">
+      <c r="H20" s="52">
         <v>0</v>
       </c>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="55"/>
       <c r="L20" s="55"/>
       <c r="M20" s="55"/>
       <c r="N20" s="55"/>
@@ -4181,10 +4126,10 @@
       <c r="AG20" s="55"/>
       <c r="AH20" s="55"/>
       <c r="AI20" s="55"/>
-      <c r="AJ20" s="55"/>
+      <c r="AJ20" s="66"/>
       <c r="AK20" s="66"/>
       <c r="AL20" s="66"/>
-      <c r="AM20" s="66"/>
+      <c r="AM20" s="55"/>
       <c r="AN20" s="55"/>
       <c r="AO20" s="55"/>
       <c r="AP20" s="55"/>
@@ -4215,50 +4160,47 @@
       <c r="BO20" s="55"/>
       <c r="BP20" s="55"/>
       <c r="BQ20" s="55"/>
-      <c r="BR20" s="55"/>
-      <c r="BS20" s="57"/>
+      <c r="BR20" s="57"/>
     </row>
-    <row r="21" spans="1:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="47"/>
       <c r="B21" s="67">
         <v>3.2</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D21" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="59" t="s">
-        <v>20</v>
+        <v>79</v>
+      </c>
+      <c r="E21" s="60">
+        <v>44896</v>
       </c>
       <c r="F21" s="60">
-        <v>44896</v>
-      </c>
-      <c r="G21" s="60">
         <v>44900</v>
       </c>
-      <c r="H21" s="61">
+      <c r="G21" s="61">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I21" s="62">
+      <c r="H21" s="62">
         <v>0</v>
       </c>
-      <c r="J21" s="63"/>
-      <c r="K21" s="64"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="65"/>
       <c r="L21" s="65"/>
       <c r="M21" s="65"/>
       <c r="N21" s="65"/>
       <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
+      <c r="P21" s="55"/>
       <c r="Q21" s="55"/>
       <c r="R21" s="55"/>
       <c r="S21" s="55"/>
       <c r="T21" s="55"/>
       <c r="U21" s="55"/>
       <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
+      <c r="W21" s="65"/>
       <c r="X21" s="65"/>
       <c r="Y21" s="65"/>
       <c r="Z21" s="65"/>
@@ -4271,27 +4213,27 @@
       <c r="AG21" s="65"/>
       <c r="AH21" s="65"/>
       <c r="AI21" s="65"/>
-      <c r="AJ21" s="65"/>
+      <c r="AJ21" s="55"/>
       <c r="AK21" s="55"/>
       <c r="AL21" s="55"/>
-      <c r="AM21" s="55"/>
-      <c r="AN21" s="103"/>
-      <c r="AO21" s="103"/>
-      <c r="AP21" s="103"/>
-      <c r="AQ21" s="103"/>
-      <c r="AR21" s="103"/>
+      <c r="AM21" s="82"/>
+      <c r="AN21" s="82"/>
+      <c r="AO21" s="82"/>
+      <c r="AP21" s="82"/>
+      <c r="AQ21" s="82"/>
+      <c r="AR21" s="65"/>
       <c r="AS21" s="65"/>
       <c r="AT21" s="65"/>
       <c r="AU21" s="65"/>
       <c r="AV21" s="65"/>
       <c r="AW21" s="65"/>
       <c r="AX21" s="65"/>
-      <c r="AY21" s="65"/>
+      <c r="AY21" s="55"/>
       <c r="AZ21" s="55"/>
       <c r="BA21" s="55"/>
       <c r="BB21" s="55"/>
       <c r="BC21" s="55"/>
-      <c r="BD21" s="55"/>
+      <c r="BD21" s="65"/>
       <c r="BE21" s="65"/>
       <c r="BF21" s="65"/>
       <c r="BG21" s="65"/>
@@ -4301,54 +4243,51 @@
       <c r="BK21" s="65"/>
       <c r="BL21" s="65"/>
       <c r="BM21" s="65"/>
-      <c r="BN21" s="65"/>
+      <c r="BN21" s="55"/>
       <c r="BO21" s="55"/>
       <c r="BP21" s="55"/>
       <c r="BQ21" s="55"/>
-      <c r="BR21" s="55"/>
-      <c r="BS21" s="57"/>
+      <c r="BR21" s="57"/>
     </row>
-    <row r="22" spans="1:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="47"/>
       <c r="B22" s="58" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D22" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="59" t="s">
-        <v>20</v>
+        <v>80</v>
+      </c>
+      <c r="E22" s="60">
+        <v>44901</v>
       </c>
       <c r="F22" s="60">
-        <v>44901</v>
-      </c>
-      <c r="G22" s="60">
         <v>44902</v>
       </c>
-      <c r="H22" s="61">
+      <c r="G22" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I22" s="62">
+      <c r="H22" s="62">
         <v>0</v>
       </c>
-      <c r="J22" s="63"/>
-      <c r="K22" s="64"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="65"/>
       <c r="L22" s="65"/>
       <c r="M22" s="65"/>
       <c r="N22" s="65"/>
       <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
+      <c r="P22" s="55"/>
       <c r="Q22" s="55"/>
       <c r="R22" s="55"/>
       <c r="S22" s="55"/>
       <c r="T22" s="55"/>
       <c r="U22" s="55"/>
       <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
+      <c r="W22" s="65"/>
       <c r="X22" s="65"/>
       <c r="Y22" s="65"/>
       <c r="Z22" s="65"/>
@@ -4361,27 +4300,27 @@
       <c r="AG22" s="65"/>
       <c r="AH22" s="65"/>
       <c r="AI22" s="65"/>
-      <c r="AJ22" s="65"/>
+      <c r="AJ22" s="55"/>
       <c r="AK22" s="55"/>
       <c r="AL22" s="55"/>
       <c r="AM22" s="55"/>
       <c r="AN22" s="55"/>
       <c r="AO22" s="55"/>
-      <c r="AP22" s="55"/>
+      <c r="AP22" s="65"/>
       <c r="AQ22" s="65"/>
-      <c r="AR22" s="65"/>
-      <c r="AS22" s="103"/>
-      <c r="AT22" s="103"/>
+      <c r="AR22" s="82"/>
+      <c r="AS22" s="82"/>
+      <c r="AT22" s="65"/>
       <c r="AU22" s="65"/>
       <c r="AV22" s="65"/>
       <c r="AW22" s="65"/>
       <c r="AX22" s="65"/>
-      <c r="AY22" s="65"/>
+      <c r="AY22" s="55"/>
       <c r="AZ22" s="55"/>
       <c r="BA22" s="55"/>
       <c r="BB22" s="55"/>
       <c r="BC22" s="55"/>
-      <c r="BD22" s="55"/>
+      <c r="BD22" s="65"/>
       <c r="BE22" s="65"/>
       <c r="BF22" s="65"/>
       <c r="BG22" s="65"/>
@@ -4391,54 +4330,51 @@
       <c r="BK22" s="65"/>
       <c r="BL22" s="65"/>
       <c r="BM22" s="65"/>
-      <c r="BN22" s="65"/>
+      <c r="BN22" s="55"/>
       <c r="BO22" s="55"/>
       <c r="BP22" s="55"/>
       <c r="BQ22" s="55"/>
-      <c r="BR22" s="55"/>
-      <c r="BS22" s="57"/>
+      <c r="BR22" s="57"/>
     </row>
-    <row r="23" spans="1:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="47"/>
       <c r="B23" s="58" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D23" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="59" t="s">
-        <v>20</v>
+        <v>81</v>
+      </c>
+      <c r="E23" s="60">
+        <v>44903</v>
       </c>
       <c r="F23" s="60">
-        <v>44903</v>
-      </c>
-      <c r="G23" s="60">
         <v>44910</v>
       </c>
-      <c r="H23" s="61">
+      <c r="G23" s="61">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I23" s="62">
+      <c r="H23" s="62">
         <v>0</v>
       </c>
-      <c r="J23" s="63"/>
-      <c r="K23" s="64"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65"/>
       <c r="L23" s="65"/>
       <c r="M23" s="65"/>
       <c r="N23" s="65"/>
       <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
+      <c r="P23" s="55"/>
       <c r="Q23" s="55"/>
       <c r="R23" s="55"/>
       <c r="S23" s="55"/>
       <c r="T23" s="55"/>
       <c r="U23" s="55"/>
       <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
+      <c r="W23" s="65"/>
       <c r="X23" s="65"/>
       <c r="Y23" s="65"/>
       <c r="Z23" s="65"/>
@@ -4451,27 +4387,27 @@
       <c r="AG23" s="65"/>
       <c r="AH23" s="65"/>
       <c r="AI23" s="65"/>
-      <c r="AJ23" s="65"/>
+      <c r="AJ23" s="55"/>
       <c r="AK23" s="55"/>
       <c r="AL23" s="55"/>
       <c r="AM23" s="55"/>
       <c r="AN23" s="55"/>
       <c r="AO23" s="55"/>
-      <c r="AP23" s="55"/>
+      <c r="AP23" s="65"/>
       <c r="AQ23" s="65"/>
       <c r="AR23" s="65"/>
       <c r="AS23" s="65"/>
-      <c r="AT23" s="65"/>
-      <c r="AU23" s="103"/>
-      <c r="AV23" s="103"/>
-      <c r="AW23" s="103"/>
-      <c r="AX23" s="103"/>
-      <c r="AY23" s="103"/>
-      <c r="AZ23" s="103"/>
-      <c r="BA23" s="103"/>
-      <c r="BB23" s="103"/>
+      <c r="AT23" s="82"/>
+      <c r="AU23" s="82"/>
+      <c r="AV23" s="82"/>
+      <c r="AW23" s="82"/>
+      <c r="AX23" s="82"/>
+      <c r="AY23" s="82"/>
+      <c r="AZ23" s="82"/>
+      <c r="BA23" s="82"/>
+      <c r="BB23" s="55"/>
       <c r="BC23" s="55"/>
-      <c r="BD23" s="55"/>
+      <c r="BD23" s="65"/>
       <c r="BE23" s="65"/>
       <c r="BF23" s="65"/>
       <c r="BG23" s="65"/>
@@ -4481,54 +4417,51 @@
       <c r="BK23" s="65"/>
       <c r="BL23" s="65"/>
       <c r="BM23" s="65"/>
-      <c r="BN23" s="65"/>
+      <c r="BN23" s="55"/>
       <c r="BO23" s="55"/>
       <c r="BP23" s="55"/>
       <c r="BQ23" s="55"/>
-      <c r="BR23" s="55"/>
-      <c r="BS23" s="57"/>
+      <c r="BR23" s="57"/>
     </row>
-    <row r="24" spans="1:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="47"/>
       <c r="B24" s="67">
         <v>3.5</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D24" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="59" t="s">
-        <v>20</v>
+        <v>82</v>
+      </c>
+      <c r="E24" s="60">
+        <v>44911</v>
       </c>
       <c r="F24" s="60">
-        <v>44911</v>
-      </c>
-      <c r="G24" s="60">
         <v>44913</v>
       </c>
-      <c r="H24" s="61">
+      <c r="G24" s="61">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I24" s="62">
+      <c r="H24" s="62">
         <v>0</v>
       </c>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="65"/>
       <c r="L24" s="65"/>
       <c r="M24" s="65"/>
       <c r="N24" s="65"/>
       <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
+      <c r="P24" s="55"/>
       <c r="Q24" s="55"/>
       <c r="R24" s="55"/>
       <c r="S24" s="55"/>
       <c r="T24" s="55"/>
       <c r="U24" s="55"/>
       <c r="V24" s="55"/>
-      <c r="W24" s="55"/>
+      <c r="W24" s="65"/>
       <c r="X24" s="65"/>
       <c r="Y24" s="65"/>
       <c r="Z24" s="65"/>
@@ -4541,13 +4474,13 @@
       <c r="AG24" s="65"/>
       <c r="AH24" s="65"/>
       <c r="AI24" s="65"/>
-      <c r="AJ24" s="65"/>
+      <c r="AJ24" s="55"/>
       <c r="AK24" s="55"/>
       <c r="AL24" s="55"/>
       <c r="AM24" s="55"/>
       <c r="AN24" s="55"/>
       <c r="AO24" s="55"/>
-      <c r="AP24" s="55"/>
+      <c r="AP24" s="65"/>
       <c r="AQ24" s="65"/>
       <c r="AR24" s="65"/>
       <c r="AS24" s="65"/>
@@ -4556,13 +4489,13 @@
       <c r="AV24" s="65"/>
       <c r="AW24" s="65"/>
       <c r="AX24" s="65"/>
-      <c r="AY24" s="65"/>
+      <c r="AY24" s="55"/>
       <c r="AZ24" s="55"/>
       <c r="BA24" s="55"/>
-      <c r="BB24" s="55"/>
-      <c r="BC24" s="103"/>
-      <c r="BD24" s="103"/>
-      <c r="BE24" s="103"/>
+      <c r="BB24" s="82"/>
+      <c r="BC24" s="82"/>
+      <c r="BD24" s="82"/>
+      <c r="BE24" s="65"/>
       <c r="BF24" s="65"/>
       <c r="BG24" s="65"/>
       <c r="BH24" s="65"/>
@@ -4571,33 +4504,32 @@
       <c r="BK24" s="65"/>
       <c r="BL24" s="65"/>
       <c r="BM24" s="65"/>
-      <c r="BN24" s="65"/>
+      <c r="BN24" s="55"/>
       <c r="BO24" s="55"/>
       <c r="BP24" s="55"/>
       <c r="BQ24" s="55"/>
-      <c r="BR24" s="55"/>
-      <c r="BS24" s="57"/>
+      <c r="BR24" s="57"/>
     </row>
-    <row r="25" spans="1:71" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="29"/>
       <c r="B25" s="68">
         <v>4</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D25" s="69"/>
       <c r="E25" s="70"/>
       <c r="F25" s="70"/>
       <c r="G25" s="70"/>
       <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="72"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="73"/>
       <c r="L25" s="73"/>
       <c r="M25" s="73"/>
       <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
+      <c r="O25" s="71"/>
       <c r="P25" s="71"/>
       <c r="Q25" s="71"/>
       <c r="R25" s="71"/>
@@ -4652,38 +4584,35 @@
       <c r="BO25" s="71"/>
       <c r="BP25" s="71"/>
       <c r="BQ25" s="71"/>
-      <c r="BR25" s="71"/>
-      <c r="BS25" s="34"/>
+      <c r="BR25" s="34"/>
     </row>
-    <row r="26" spans="1:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="47"/>
       <c r="B26" s="48">
         <v>4.0999999999999996</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="49" t="s">
-        <v>20</v>
+        <v>83</v>
+      </c>
+      <c r="E26" s="50">
+        <v>44914</v>
       </c>
       <c r="F26" s="50">
-        <v>44914</v>
-      </c>
-      <c r="G26" s="50">
         <v>44918</v>
       </c>
-      <c r="H26" s="61">
+      <c r="G26" s="61">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I26" s="52">
+      <c r="H26" s="52">
         <v>0</v>
       </c>
-      <c r="J26" s="53"/>
-      <c r="K26" s="54"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="55"/>
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
       <c r="N26" s="55"/>
@@ -4729,12 +4658,12 @@
       <c r="BB26" s="55"/>
       <c r="BC26" s="55"/>
       <c r="BD26" s="55"/>
-      <c r="BE26" s="55"/>
-      <c r="BF26" s="103"/>
-      <c r="BG26" s="103"/>
-      <c r="BH26" s="103"/>
-      <c r="BI26" s="103"/>
-      <c r="BJ26" s="103"/>
+      <c r="BE26" s="82"/>
+      <c r="BF26" s="82"/>
+      <c r="BG26" s="82"/>
+      <c r="BH26" s="82"/>
+      <c r="BI26" s="82"/>
+      <c r="BJ26" s="55"/>
       <c r="BK26" s="55"/>
       <c r="BL26" s="55"/>
       <c r="BM26" s="55"/>
@@ -4742,50 +4671,47 @@
       <c r="BO26" s="55"/>
       <c r="BP26" s="55"/>
       <c r="BQ26" s="55"/>
-      <c r="BR26" s="55"/>
-      <c r="BS26" s="57"/>
+      <c r="BR26" s="57"/>
     </row>
-    <row r="27" spans="1:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="47"/>
       <c r="B27" s="67">
         <v>4.2</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D27" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="59" t="s">
-        <v>20</v>
+        <v>84</v>
+      </c>
+      <c r="E27" s="60">
+        <v>44919</v>
       </c>
       <c r="F27" s="60">
-        <v>44919</v>
-      </c>
-      <c r="G27" s="60">
         <v>44920</v>
       </c>
-      <c r="H27" s="61">
+      <c r="G27" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I27" s="62">
+      <c r="H27" s="62">
         <v>0</v>
       </c>
-      <c r="J27" s="63"/>
-      <c r="K27" s="64"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="65"/>
       <c r="L27" s="65"/>
       <c r="M27" s="65"/>
       <c r="N27" s="65"/>
       <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
+      <c r="P27" s="55"/>
       <c r="Q27" s="55"/>
       <c r="R27" s="55"/>
       <c r="S27" s="55"/>
       <c r="T27" s="55"/>
       <c r="U27" s="55"/>
       <c r="V27" s="55"/>
-      <c r="W27" s="55"/>
+      <c r="W27" s="65"/>
       <c r="X27" s="65"/>
       <c r="Y27" s="65"/>
       <c r="Z27" s="65"/>
@@ -4798,13 +4724,13 @@
       <c r="AG27" s="65"/>
       <c r="AH27" s="65"/>
       <c r="AI27" s="65"/>
-      <c r="AJ27" s="65"/>
+      <c r="AJ27" s="55"/>
       <c r="AK27" s="55"/>
       <c r="AL27" s="55"/>
       <c r="AM27" s="55"/>
       <c r="AN27" s="55"/>
       <c r="AO27" s="55"/>
-      <c r="AP27" s="55"/>
+      <c r="AP27" s="65"/>
       <c r="AQ27" s="65"/>
       <c r="AR27" s="65"/>
       <c r="AS27" s="65"/>
@@ -4813,69 +4739,66 @@
       <c r="AV27" s="65"/>
       <c r="AW27" s="65"/>
       <c r="AX27" s="65"/>
-      <c r="AY27" s="65"/>
+      <c r="AY27" s="55"/>
       <c r="AZ27" s="55"/>
       <c r="BA27" s="55"/>
       <c r="BB27" s="55"/>
       <c r="BC27" s="55"/>
-      <c r="BD27" s="55"/>
+      <c r="BD27" s="65"/>
       <c r="BE27" s="65"/>
       <c r="BF27" s="65"/>
       <c r="BG27" s="65"/>
       <c r="BH27" s="65"/>
       <c r="BI27" s="65"/>
-      <c r="BJ27" s="65"/>
-      <c r="BK27" s="103"/>
-      <c r="BL27" s="103"/>
+      <c r="BJ27" s="82"/>
+      <c r="BK27" s="82"/>
+      <c r="BL27" s="65"/>
       <c r="BM27" s="65"/>
-      <c r="BN27" s="65"/>
+      <c r="BN27" s="55"/>
       <c r="BO27" s="55"/>
       <c r="BP27" s="55"/>
       <c r="BQ27" s="55"/>
-      <c r="BR27" s="55"/>
-      <c r="BS27" s="57"/>
+      <c r="BR27" s="57"/>
     </row>
-    <row r="28" spans="1:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="47"/>
       <c r="B28" s="67">
         <v>4.3</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D28" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="59" t="s">
-        <v>20</v>
+        <v>85</v>
+      </c>
+      <c r="E28" s="60">
+        <v>44921</v>
       </c>
       <c r="F28" s="60">
-        <v>44921</v>
-      </c>
-      <c r="G28" s="60">
         <v>44926</v>
       </c>
-      <c r="H28" s="61">
+      <c r="G28" s="61">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I28" s="62">
+      <c r="H28" s="62">
         <v>0</v>
       </c>
-      <c r="J28" s="63"/>
-      <c r="K28" s="64"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="65"/>
       <c r="L28" s="65"/>
       <c r="M28" s="65"/>
       <c r="N28" s="65"/>
       <c r="O28" s="65"/>
-      <c r="P28" s="65"/>
+      <c r="P28" s="55"/>
       <c r="Q28" s="55"/>
       <c r="R28" s="55"/>
       <c r="S28" s="55"/>
       <c r="T28" s="55"/>
       <c r="U28" s="55"/>
       <c r="V28" s="55"/>
-      <c r="W28" s="55"/>
+      <c r="W28" s="65"/>
       <c r="X28" s="65"/>
       <c r="Y28" s="65"/>
       <c r="Z28" s="65"/>
@@ -4888,13 +4811,13 @@
       <c r="AG28" s="65"/>
       <c r="AH28" s="65"/>
       <c r="AI28" s="65"/>
-      <c r="AJ28" s="65"/>
+      <c r="AJ28" s="55"/>
       <c r="AK28" s="55"/>
       <c r="AL28" s="55"/>
       <c r="AM28" s="55"/>
       <c r="AN28" s="55"/>
       <c r="AO28" s="55"/>
-      <c r="AP28" s="55"/>
+      <c r="AP28" s="65"/>
       <c r="AQ28" s="65"/>
       <c r="AR28" s="65"/>
       <c r="AS28" s="65"/>
@@ -4903,12 +4826,12 @@
       <c r="AV28" s="65"/>
       <c r="AW28" s="65"/>
       <c r="AX28" s="65"/>
-      <c r="AY28" s="65"/>
+      <c r="AY28" s="55"/>
       <c r="AZ28" s="55"/>
       <c r="BA28" s="55"/>
       <c r="BB28" s="55"/>
       <c r="BC28" s="55"/>
-      <c r="BD28" s="55"/>
+      <c r="BD28" s="65"/>
       <c r="BE28" s="65"/>
       <c r="BF28" s="65"/>
       <c r="BG28" s="65"/>
@@ -4916,25 +4839,24 @@
       <c r="BI28" s="65"/>
       <c r="BJ28" s="65"/>
       <c r="BK28" s="65"/>
-      <c r="BL28" s="65"/>
-      <c r="BM28" s="103"/>
-      <c r="BN28" s="103"/>
-      <c r="BO28" s="103"/>
-      <c r="BP28" s="103"/>
-      <c r="BQ28" s="103"/>
-      <c r="BR28" s="103"/>
-      <c r="BS28" s="57"/>
+      <c r="BL28" s="82"/>
+      <c r="BM28" s="82"/>
+      <c r="BN28" s="82"/>
+      <c r="BO28" s="82"/>
+      <c r="BP28" s="82"/>
+      <c r="BQ28" s="82"/>
+      <c r="BR28" s="57"/>
     </row>
-    <row r="29" spans="1:71" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="29"/>
       <c r="B29" s="75"/>
       <c r="C29" s="75"/>
       <c r="D29" s="75"/>
       <c r="E29" s="75"/>
       <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
+      <c r="G29" s="76"/>
       <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
+      <c r="I29" s="77"/>
       <c r="J29" s="77"/>
       <c r="K29" s="77"/>
       <c r="L29" s="77"/>
@@ -4995,19 +4917,18 @@
       <c r="BO29" s="77"/>
       <c r="BP29" s="77"/>
       <c r="BQ29" s="77"/>
-      <c r="BR29" s="77"/>
-      <c r="BS29" s="34"/>
+      <c r="BR29" s="34"/>
     </row>
-    <row r="30" spans="1:71" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="29"/>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="G30" s="32"/>
       <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
+      <c r="I30" s="33"/>
       <c r="J30" s="33"/>
       <c r="K30" s="33"/>
       <c r="L30" s="33"/>
@@ -5068,19 +4989,18 @@
       <c r="BO30" s="33"/>
       <c r="BP30" s="33"/>
       <c r="BQ30" s="33"/>
-      <c r="BR30" s="33"/>
-      <c r="BS30" s="34"/>
+      <c r="BR30" s="34"/>
     </row>
-    <row r="31" spans="1:71" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="78"/>
       <c r="B31" s="79"/>
       <c r="C31" s="79"/>
       <c r="D31" s="79"/>
       <c r="E31" s="79"/>
       <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
+      <c r="G31" s="80"/>
       <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
+      <c r="I31" s="79"/>
       <c r="J31" s="79"/>
       <c r="K31" s="79"/>
       <c r="L31" s="79"/>
@@ -5141,42 +5061,40 @@
       <c r="BO31" s="79"/>
       <c r="BP31" s="79"/>
       <c r="BQ31" s="79"/>
-      <c r="BR31" s="79"/>
-      <c r="BS31" s="81"/>
+      <c r="BR31" s="81"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="30">
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I5:Q5"/>
+    <mergeCell ref="R5:AI5"/>
+    <mergeCell ref="Q2:AL2"/>
+    <mergeCell ref="I4:Q4"/>
+    <mergeCell ref="R4:AJ4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="AP9:AV9"/>
+    <mergeCell ref="AW9:BC9"/>
+    <mergeCell ref="BD9:BJ9"/>
+    <mergeCell ref="BK9:BQ9"/>
+    <mergeCell ref="AM8:BQ8"/>
+    <mergeCell ref="AM9:AO9"/>
+    <mergeCell ref="I8:AL8"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="N9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="AB9:AH9"/>
+    <mergeCell ref="AI9:AL9"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="H8:H10"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E5:G5"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D8:D10"/>
-    <mergeCell ref="H8:H10"/>
     <mergeCell ref="G8:G10"/>
+    <mergeCell ref="F8:F10"/>
     <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="J8:AM8"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="O9:U9"/>
-    <mergeCell ref="V9:AB9"/>
-    <mergeCell ref="AC9:AI9"/>
-    <mergeCell ref="AJ9:AM9"/>
-    <mergeCell ref="AQ9:AW9"/>
-    <mergeCell ref="AX9:BD9"/>
-    <mergeCell ref="BE9:BK9"/>
-    <mergeCell ref="BL9:BR9"/>
-    <mergeCell ref="AN8:BR8"/>
-    <mergeCell ref="AN9:AP9"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="J5:R5"/>
-    <mergeCell ref="S5:AJ5"/>
-    <mergeCell ref="R2:AM2"/>
-    <mergeCell ref="J4:R4"/>
-    <mergeCell ref="S4:AK4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -5185,7 +5103,7 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="J10 K10:AM10 AN10:BR10 B13 B22:B23" numberStoredAsText="1"/>
+    <ignoredError sqref="I10 J10:AL10 AM10:BQ10 B13 B22:B23" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Gantt chart- Assignment 1 - Ben Ho.xlsx
+++ b/Gantt chart- Assignment 1 - Ben Ho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benho/Desktop/MSc Data Science/CETM46/github/product_design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCFDB80-03DB-1B41-86FC-959A7DEB1DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF557455-2C02-6446-9363-454E5D2D8CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="86">
   <si>
     <t>Smartsheet Tip ➜</t>
   </si>
@@ -44,15 +44,9 @@
     <t>PROJECT TITLE</t>
   </si>
   <si>
-    <t>COMPANY NAME</t>
-  </si>
-  <si>
     <t>PROJECT MANAGER</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>WBS NUMBER</t>
   </si>
   <si>
@@ -89,7 +83,7 @@
     <t>Research</t>
   </si>
   <si>
-    <t>University of Sunderland</t>
+    <t>Ben Ho</t>
   </si>
   <si>
     <t>Planning</t>
@@ -294,6 +288,9 @@
   </si>
   <si>
     <t>CETM46 Data Science Product Development</t>
+  </si>
+  <si>
+    <t>Assignment 1</t>
   </si>
 </sst>
 </file>
@@ -304,7 +301,7 @@
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm&quot;/&quot;yy"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -445,6 +442,12 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -932,7 +935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -998,13 +1001,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1214,9 +1214,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1224,9 +1221,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2408,8 +2414,8 @@
   <dimension ref="A1:BR31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="8" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW22" sqref="AW22"/>
+      <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F8" sqref="F8:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2501,49 +2507,49 @@
     </row>
     <row r="2" spans="1:70" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12"/>
-      <c r="B2" s="100" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
+      <c r="B2" s="97" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
       <c r="H2" s="13"/>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="102" t="s">
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="99"/>
-      <c r="AB2" s="99"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="99"/>
-      <c r="AG2" s="99"/>
-      <c r="AH2" s="99"/>
-      <c r="AI2" s="99"/>
-      <c r="AJ2" s="99"/>
-      <c r="AK2" s="99"/>
-      <c r="AL2" s="99"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="96"/>
+      <c r="AH2" s="96"/>
+      <c r="AI2" s="96"/>
+      <c r="AJ2" s="96"/>
+      <c r="AK2" s="96"/>
+      <c r="AL2" s="96"/>
       <c r="AM2" s="14"/>
       <c r="AN2" s="14"/>
       <c r="AO2" s="14"/>
@@ -2651,48 +2657,46 @@
     </row>
     <row r="4" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="105" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="25"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="82"/>
+      <c r="AE4" s="82"/>
+      <c r="AF4" s="82"/>
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="82"/>
+      <c r="AI4" s="82"/>
+      <c r="AJ4" s="82"/>
+      <c r="AK4" s="24"/>
       <c r="AL4" s="22"/>
       <c r="AM4" s="22"/>
       <c r="AN4" s="22"/>
@@ -2729,48 +2733,46 @@
     </row>
     <row r="5" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
-      <c r="B5" s="89" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="101">
-        <v>44863</v>
-      </c>
-      <c r="S5" s="88"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="88"/>
-      <c r="Z5" s="88"/>
-      <c r="AA5" s="88"/>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="88"/>
-      <c r="AD5" s="88"/>
-      <c r="AE5" s="88"/>
-      <c r="AF5" s="88"/>
-      <c r="AG5" s="88"/>
-      <c r="AH5" s="88"/>
-      <c r="AI5" s="88"/>
-      <c r="AJ5" s="27"/>
-      <c r="AK5" s="25"/>
+      <c r="B5" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="85"/>
+      <c r="D5" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="82"/>
+      <c r="AF5" s="82"/>
+      <c r="AG5" s="82"/>
+      <c r="AH5" s="82"/>
+      <c r="AI5" s="82"/>
+      <c r="AJ5" s="106"/>
+      <c r="AK5" s="24"/>
       <c r="AL5" s="15"/>
       <c r="AM5" s="15"/>
       <c r="AN5" s="15"/>
@@ -2778,7 +2780,7 @@
       <c r="AP5" s="15"/>
       <c r="AQ5" s="15"/>
       <c r="AR5" s="15"/>
-      <c r="AS5" s="28"/>
+      <c r="AS5" s="25"/>
       <c r="AT5" s="15"/>
       <c r="AU5" s="15"/>
       <c r="AV5" s="15"/>
@@ -2806,14 +2808,14 @@
       <c r="BR5" s="16"/>
     </row>
     <row r="6" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
@@ -2842,2226 +2844,2226 @@
       <c r="AH6" s="30"/>
       <c r="AI6" s="30"/>
       <c r="AJ6" s="30"/>
-      <c r="AK6" s="33"/>
-      <c r="AL6" s="33"/>
-      <c r="AM6" s="33"/>
-      <c r="AN6" s="33"/>
-      <c r="AO6" s="33"/>
-      <c r="AP6" s="33"/>
-      <c r="AQ6" s="33"/>
-      <c r="AR6" s="33"/>
-      <c r="AS6" s="33"/>
-      <c r="AT6" s="33"/>
-      <c r="AU6" s="33"/>
-      <c r="AV6" s="33"/>
-      <c r="AW6" s="33"/>
-      <c r="AX6" s="33"/>
-      <c r="AY6" s="33"/>
-      <c r="AZ6" s="33"/>
-      <c r="BA6" s="33"/>
-      <c r="BB6" s="33"/>
-      <c r="BC6" s="33"/>
-      <c r="BD6" s="33"/>
-      <c r="BE6" s="33"/>
-      <c r="BF6" s="33"/>
-      <c r="BG6" s="33"/>
-      <c r="BH6" s="33"/>
-      <c r="BI6" s="33"/>
-      <c r="BJ6" s="33"/>
-      <c r="BK6" s="33"/>
-      <c r="BL6" s="33"/>
-      <c r="BM6" s="33"/>
-      <c r="BN6" s="33"/>
-      <c r="BO6" s="33"/>
-      <c r="BP6" s="33"/>
-      <c r="BQ6" s="33"/>
-      <c r="BR6" s="34"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="30"/>
+      <c r="AQ6" s="30"/>
+      <c r="AR6" s="30"/>
+      <c r="AS6" s="30"/>
+      <c r="AT6" s="30"/>
+      <c r="AU6" s="30"/>
+      <c r="AV6" s="30"/>
+      <c r="AW6" s="30"/>
+      <c r="AX6" s="30"/>
+      <c r="AY6" s="30"/>
+      <c r="AZ6" s="30"/>
+      <c r="BA6" s="30"/>
+      <c r="BB6" s="30"/>
+      <c r="BC6" s="30"/>
+      <c r="BD6" s="30"/>
+      <c r="BE6" s="30"/>
+      <c r="BF6" s="30"/>
+      <c r="BG6" s="30"/>
+      <c r="BH6" s="30"/>
+      <c r="BI6" s="30"/>
+      <c r="BJ6" s="30"/>
+      <c r="BK6" s="30"/>
+      <c r="BL6" s="30"/>
+      <c r="BM6" s="30"/>
+      <c r="BN6" s="30"/>
+      <c r="BO6" s="30"/>
+      <c r="BP6" s="30"/>
+      <c r="BQ6" s="30"/>
+      <c r="BR6" s="31"/>
     </row>
     <row r="7" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="33"/>
-      <c r="AH7" s="33"/>
-      <c r="AI7" s="33"/>
-      <c r="AJ7" s="33"/>
-      <c r="AK7" s="33"/>
-      <c r="AL7" s="33"/>
-      <c r="AM7" s="33"/>
-      <c r="AN7" s="33"/>
-      <c r="AO7" s="33"/>
-      <c r="AP7" s="33"/>
-      <c r="AQ7" s="33"/>
-      <c r="AR7" s="33"/>
-      <c r="AS7" s="33"/>
-      <c r="AT7" s="33"/>
-      <c r="AU7" s="33"/>
-      <c r="AV7" s="33"/>
-      <c r="AW7" s="33"/>
-      <c r="AX7" s="33"/>
-      <c r="AY7" s="33"/>
-      <c r="AZ7" s="33"/>
-      <c r="BA7" s="33"/>
-      <c r="BB7" s="33"/>
-      <c r="BC7" s="33"/>
-      <c r="BD7" s="33"/>
-      <c r="BE7" s="33"/>
-      <c r="BF7" s="33"/>
-      <c r="BG7" s="33"/>
-      <c r="BH7" s="33"/>
-      <c r="BI7" s="33"/>
-      <c r="BJ7" s="33"/>
-      <c r="BK7" s="33"/>
-      <c r="BL7" s="33"/>
-      <c r="BM7" s="33"/>
-      <c r="BN7" s="33"/>
-      <c r="BO7" s="33"/>
-      <c r="BP7" s="33"/>
-      <c r="BQ7" s="33"/>
-      <c r="BR7" s="34"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="30"/>
+      <c r="AO7" s="30"/>
+      <c r="AP7" s="30"/>
+      <c r="AQ7" s="30"/>
+      <c r="AR7" s="30"/>
+      <c r="AS7" s="30"/>
+      <c r="AT7" s="30"/>
+      <c r="AU7" s="30"/>
+      <c r="AV7" s="30"/>
+      <c r="AW7" s="30"/>
+      <c r="AX7" s="30"/>
+      <c r="AY7" s="30"/>
+      <c r="AZ7" s="30"/>
+      <c r="BA7" s="30"/>
+      <c r="BB7" s="30"/>
+      <c r="BC7" s="30"/>
+      <c r="BD7" s="30"/>
+      <c r="BE7" s="30"/>
+      <c r="BF7" s="30"/>
+      <c r="BG7" s="30"/>
+      <c r="BH7" s="30"/>
+      <c r="BI7" s="30"/>
+      <c r="BJ7" s="30"/>
+      <c r="BK7" s="30"/>
+      <c r="BL7" s="30"/>
+      <c r="BM7" s="30"/>
+      <c r="BN7" s="30"/>
+      <c r="BO7" s="30"/>
+      <c r="BP7" s="30"/>
+      <c r="BQ7" s="30"/>
+      <c r="BR7" s="31"/>
     </row>
     <row r="8" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
-      <c r="B8" s="84" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="F8" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="84" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="84" t="s">
+      <c r="G8" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="H8" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="91"/>
-      <c r="U8" s="91"/>
-      <c r="V8" s="91"/>
-      <c r="W8" s="91"/>
-      <c r="X8" s="91"/>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="91"/>
-      <c r="AA8" s="91"/>
-      <c r="AB8" s="91"/>
-      <c r="AC8" s="91"/>
-      <c r="AD8" s="91"/>
-      <c r="AE8" s="91"/>
-      <c r="AF8" s="91"/>
-      <c r="AG8" s="91"/>
-      <c r="AH8" s="91"/>
-      <c r="AI8" s="91"/>
-      <c r="AJ8" s="91"/>
-      <c r="AK8" s="91"/>
-      <c r="AL8" s="91"/>
-      <c r="AM8" s="96" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN8" s="96"/>
-      <c r="AO8" s="96"/>
-      <c r="AP8" s="96"/>
-      <c r="AQ8" s="96"/>
-      <c r="AR8" s="96"/>
-      <c r="AS8" s="96"/>
-      <c r="AT8" s="96"/>
-      <c r="AU8" s="96"/>
-      <c r="AV8" s="96"/>
-      <c r="AW8" s="96"/>
-      <c r="AX8" s="96"/>
-      <c r="AY8" s="96"/>
-      <c r="AZ8" s="96"/>
-      <c r="BA8" s="96"/>
-      <c r="BB8" s="96"/>
-      <c r="BC8" s="96"/>
-      <c r="BD8" s="96"/>
-      <c r="BE8" s="96"/>
-      <c r="BF8" s="96"/>
-      <c r="BG8" s="96"/>
-      <c r="BH8" s="96"/>
-      <c r="BI8" s="96"/>
-      <c r="BJ8" s="96"/>
-      <c r="BK8" s="96"/>
-      <c r="BL8" s="96"/>
-      <c r="BM8" s="96"/>
-      <c r="BN8" s="96"/>
-      <c r="BO8" s="96"/>
-      <c r="BP8" s="96"/>
-      <c r="BQ8" s="97"/>
-      <c r="BR8" s="35"/>
+      <c r="I8" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="88"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="88"/>
+      <c r="AD8" s="88"/>
+      <c r="AE8" s="88"/>
+      <c r="AF8" s="88"/>
+      <c r="AG8" s="88"/>
+      <c r="AH8" s="88"/>
+      <c r="AI8" s="88"/>
+      <c r="AJ8" s="88"/>
+      <c r="AK8" s="88"/>
+      <c r="AL8" s="88"/>
+      <c r="AM8" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN8" s="93"/>
+      <c r="AO8" s="93"/>
+      <c r="AP8" s="93"/>
+      <c r="AQ8" s="93"/>
+      <c r="AR8" s="93"/>
+      <c r="AS8" s="93"/>
+      <c r="AT8" s="93"/>
+      <c r="AU8" s="93"/>
+      <c r="AV8" s="93"/>
+      <c r="AW8" s="93"/>
+      <c r="AX8" s="93"/>
+      <c r="AY8" s="93"/>
+      <c r="AZ8" s="93"/>
+      <c r="BA8" s="93"/>
+      <c r="BB8" s="93"/>
+      <c r="BC8" s="93"/>
+      <c r="BD8" s="93"/>
+      <c r="BE8" s="93"/>
+      <c r="BF8" s="93"/>
+      <c r="BG8" s="93"/>
+      <c r="BH8" s="93"/>
+      <c r="BI8" s="93"/>
+      <c r="BJ8" s="93"/>
+      <c r="BK8" s="93"/>
+      <c r="BL8" s="93"/>
+      <c r="BM8" s="93"/>
+      <c r="BN8" s="93"/>
+      <c r="BO8" s="93"/>
+      <c r="BP8" s="93"/>
+      <c r="BQ8" s="94"/>
+      <c r="BR8" s="32"/>
     </row>
     <row r="9" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="36"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="92" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92" t="s">
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92" t="s">
+      <c r="AC9" s="89"/>
+      <c r="AD9" s="89"/>
+      <c r="AE9" s="89"/>
+      <c r="AF9" s="89"/>
+      <c r="AG9" s="89"/>
+      <c r="AH9" s="89"/>
+      <c r="AI9" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="V9" s="92"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="92" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="92"/>
-      <c r="AE9" s="92"/>
-      <c r="AF9" s="92"/>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ9" s="92"/>
-      <c r="AK9" s="92"/>
-      <c r="AL9" s="92"/>
-      <c r="AM9" s="94" t="s">
+      <c r="AJ9" s="89"/>
+      <c r="AK9" s="89"/>
+      <c r="AL9" s="89"/>
+      <c r="AM9" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN9" s="91"/>
+      <c r="AO9" s="92"/>
+      <c r="AP9" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ9" s="91"/>
+      <c r="AR9" s="91"/>
+      <c r="AS9" s="91"/>
+      <c r="AT9" s="91"/>
+      <c r="AU9" s="91"/>
+      <c r="AV9" s="92"/>
+      <c r="AW9" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="AN9" s="94"/>
-      <c r="AO9" s="95"/>
-      <c r="AP9" s="93" t="s">
+      <c r="AX9" s="91"/>
+      <c r="AY9" s="91"/>
+      <c r="AZ9" s="91"/>
+      <c r="BA9" s="91"/>
+      <c r="BB9" s="91"/>
+      <c r="BC9" s="92"/>
+      <c r="BD9" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AQ9" s="94"/>
-      <c r="AR9" s="94"/>
-      <c r="AS9" s="94"/>
-      <c r="AT9" s="94"/>
-      <c r="AU9" s="94"/>
-      <c r="AV9" s="95"/>
-      <c r="AW9" s="93" t="s">
+      <c r="BE9" s="91"/>
+      <c r="BF9" s="91"/>
+      <c r="BG9" s="91"/>
+      <c r="BH9" s="91"/>
+      <c r="BI9" s="91"/>
+      <c r="BJ9" s="92"/>
+      <c r="BK9" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="AX9" s="94"/>
-      <c r="AY9" s="94"/>
-      <c r="AZ9" s="94"/>
-      <c r="BA9" s="94"/>
-      <c r="BB9" s="94"/>
-      <c r="BC9" s="95"/>
-      <c r="BD9" s="93" t="s">
-        <v>15</v>
-      </c>
-      <c r="BE9" s="94"/>
-      <c r="BF9" s="94"/>
-      <c r="BG9" s="94"/>
-      <c r="BH9" s="94"/>
-      <c r="BI9" s="94"/>
-      <c r="BJ9" s="95"/>
-      <c r="BK9" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="BL9" s="94"/>
-      <c r="BM9" s="94"/>
-      <c r="BN9" s="94"/>
-      <c r="BO9" s="94"/>
-      <c r="BP9" s="94"/>
-      <c r="BQ9" s="95"/>
-      <c r="BR9" s="37"/>
+      <c r="BL9" s="91"/>
+      <c r="BM9" s="91"/>
+      <c r="BN9" s="91"/>
+      <c r="BO9" s="91"/>
+      <c r="BP9" s="91"/>
+      <c r="BQ9" s="92"/>
+      <c r="BR9" s="34"/>
     </row>
     <row r="10" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="38"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="83" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="83" t="s">
+      <c r="L10" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="83" t="s">
+      <c r="M10" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="83" t="s">
+      <c r="N10" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="83" t="s">
+      <c r="O10" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="83" t="s">
+      <c r="P10" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="83" t="s">
+      <c r="Q10" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="P10" s="83" t="s">
+      <c r="R10" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="Q10" s="83" t="s">
+      <c r="S10" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="R10" s="83" t="s">
+      <c r="T10" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="S10" s="83" t="s">
+      <c r="U10" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="T10" s="83" t="s">
+      <c r="V10" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="U10" s="83" t="s">
+      <c r="W10" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="V10" s="83" t="s">
+      <c r="X10" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="W10" s="83" t="s">
+      <c r="Y10" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="X10" s="83" t="s">
+      <c r="Z10" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="Y10" s="83" t="s">
+      <c r="AA10" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="Z10" s="83" t="s">
+      <c r="AB10" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="AA10" s="83" t="s">
+      <c r="AC10" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="AB10" s="83" t="s">
+      <c r="AD10" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="AC10" s="83" t="s">
+      <c r="AE10" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="AD10" s="83" t="s">
+      <c r="AF10" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="AE10" s="83" t="s">
+      <c r="AG10" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="AF10" s="83" t="s">
+      <c r="AH10" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="AG10" s="83" t="s">
+      <c r="AI10" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="AH10" s="83" t="s">
+      <c r="AJ10" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="AI10" s="83" t="s">
+      <c r="AK10" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="AJ10" s="83" t="s">
+      <c r="AL10" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="AK10" s="83" t="s">
+      <c r="AM10" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN10" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO10" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP10" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ10" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR10" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS10" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT10" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU10" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV10" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW10" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX10" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY10" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ10" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA10" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB10" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC10" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD10" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE10" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF10" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG10" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH10" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI10" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ10" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK10" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL10" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM10" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN10" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO10" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP10" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="AL10" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM10" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN10" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO10" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP10" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ10" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR10" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="AS10" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT10" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU10" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV10" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW10" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="AX10" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY10" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ10" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="BA10" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="BB10" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="BC10" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD10" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="BE10" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="BF10" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="BG10" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="BH10" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="BI10" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="BJ10" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="BK10" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="BL10" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="BM10" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN10" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="BO10" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="BP10" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="BQ10" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR10" s="40"/>
+      <c r="BR10" s="37"/>
     </row>
     <row r="11" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29"/>
-      <c r="B11" s="41">
+      <c r="A11" s="26"/>
+      <c r="B11" s="38">
         <v>1</v>
       </c>
-      <c r="C11" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="44"/>
-      <c r="AF11" s="44"/>
-      <c r="AG11" s="44"/>
-      <c r="AH11" s="44"/>
-      <c r="AI11" s="44"/>
-      <c r="AJ11" s="44"/>
-      <c r="AK11" s="44"/>
-      <c r="AL11" s="44"/>
-      <c r="AM11" s="44"/>
-      <c r="AN11" s="44"/>
-      <c r="AO11" s="44"/>
-      <c r="AP11" s="44"/>
-      <c r="AQ11" s="44"/>
-      <c r="AR11" s="44"/>
-      <c r="AS11" s="44"/>
-      <c r="AT11" s="44"/>
-      <c r="AU11" s="44"/>
-      <c r="AV11" s="44"/>
-      <c r="AW11" s="44"/>
-      <c r="AX11" s="44"/>
-      <c r="AY11" s="44"/>
-      <c r="AZ11" s="44"/>
-      <c r="BA11" s="44"/>
-      <c r="BB11" s="44"/>
-      <c r="BC11" s="44"/>
-      <c r="BD11" s="44"/>
-      <c r="BE11" s="44"/>
-      <c r="BF11" s="44"/>
-      <c r="BG11" s="44"/>
-      <c r="BH11" s="44"/>
-      <c r="BI11" s="44"/>
-      <c r="BJ11" s="44"/>
-      <c r="BK11" s="44"/>
-      <c r="BL11" s="44"/>
-      <c r="BM11" s="44"/>
-      <c r="BN11" s="44"/>
-      <c r="BO11" s="44"/>
-      <c r="BP11" s="44"/>
-      <c r="BQ11" s="44"/>
-      <c r="BR11" s="34"/>
+      <c r="C11" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="41"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
+      <c r="AH11" s="41"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="41"/>
+      <c r="AK11" s="41"/>
+      <c r="AL11" s="41"/>
+      <c r="AM11" s="41"/>
+      <c r="AN11" s="41"/>
+      <c r="AO11" s="41"/>
+      <c r="AP11" s="41"/>
+      <c r="AQ11" s="41"/>
+      <c r="AR11" s="41"/>
+      <c r="AS11" s="41"/>
+      <c r="AT11" s="41"/>
+      <c r="AU11" s="41"/>
+      <c r="AV11" s="41"/>
+      <c r="AW11" s="41"/>
+      <c r="AX11" s="41"/>
+      <c r="AY11" s="41"/>
+      <c r="AZ11" s="41"/>
+      <c r="BA11" s="41"/>
+      <c r="BB11" s="41"/>
+      <c r="BC11" s="41"/>
+      <c r="BD11" s="41"/>
+      <c r="BE11" s="41"/>
+      <c r="BF11" s="41"/>
+      <c r="BG11" s="41"/>
+      <c r="BH11" s="41"/>
+      <c r="BI11" s="41"/>
+      <c r="BJ11" s="41"/>
+      <c r="BK11" s="41"/>
+      <c r="BL11" s="41"/>
+      <c r="BM11" s="41"/>
+      <c r="BN11" s="41"/>
+      <c r="BO11" s="41"/>
+      <c r="BP11" s="41"/>
+      <c r="BQ11" s="41"/>
+      <c r="BR11" s="31"/>
     </row>
     <row r="12" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48">
+      <c r="A12" s="44"/>
+      <c r="B12" s="45">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C12" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="50">
+      <c r="C12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="47">
         <v>44866</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12" s="47">
         <v>44870</v>
       </c>
-      <c r="G12" s="51">
+      <c r="G12" s="48">
         <f t="shared" ref="G12:G28" si="0">DAYS360(E12,F12)</f>
         <v>4</v>
       </c>
-      <c r="H12" s="52">
+      <c r="H12" s="49">
         <v>0</v>
       </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="55"/>
-      <c r="AD12" s="55"/>
-      <c r="AE12" s="55"/>
-      <c r="AF12" s="55"/>
-      <c r="AG12" s="55"/>
-      <c r="AH12" s="55"/>
-      <c r="AI12" s="55"/>
-      <c r="AJ12" s="55"/>
-      <c r="AK12" s="55"/>
-      <c r="AL12" s="55"/>
-      <c r="AM12" s="55"/>
-      <c r="AN12" s="55"/>
-      <c r="AO12" s="55"/>
-      <c r="AP12" s="55"/>
-      <c r="AQ12" s="55"/>
-      <c r="AR12" s="55"/>
-      <c r="AS12" s="55"/>
-      <c r="AT12" s="55"/>
-      <c r="AU12" s="55"/>
-      <c r="AV12" s="55"/>
-      <c r="AW12" s="55"/>
-      <c r="AX12" s="55"/>
-      <c r="AY12" s="55"/>
-      <c r="AZ12" s="55"/>
-      <c r="BA12" s="55"/>
-      <c r="BB12" s="55"/>
-      <c r="BC12" s="55"/>
-      <c r="BD12" s="55"/>
-      <c r="BE12" s="55"/>
-      <c r="BF12" s="55"/>
-      <c r="BG12" s="55"/>
-      <c r="BH12" s="55"/>
-      <c r="BI12" s="55"/>
-      <c r="BJ12" s="55"/>
-      <c r="BK12" s="55"/>
-      <c r="BL12" s="55"/>
-      <c r="BM12" s="55"/>
-      <c r="BN12" s="55"/>
-      <c r="BO12" s="55"/>
-      <c r="BP12" s="55"/>
-      <c r="BQ12" s="55"/>
-      <c r="BR12" s="57"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="52"/>
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="52"/>
+      <c r="AJ12" s="52"/>
+      <c r="AK12" s="52"/>
+      <c r="AL12" s="52"/>
+      <c r="AM12" s="52"/>
+      <c r="AN12" s="52"/>
+      <c r="AO12" s="52"/>
+      <c r="AP12" s="52"/>
+      <c r="AQ12" s="52"/>
+      <c r="AR12" s="52"/>
+      <c r="AS12" s="52"/>
+      <c r="AT12" s="52"/>
+      <c r="AU12" s="52"/>
+      <c r="AV12" s="52"/>
+      <c r="AW12" s="52"/>
+      <c r="AX12" s="52"/>
+      <c r="AY12" s="52"/>
+      <c r="AZ12" s="52"/>
+      <c r="BA12" s="52"/>
+      <c r="BB12" s="52"/>
+      <c r="BC12" s="52"/>
+      <c r="BD12" s="52"/>
+      <c r="BE12" s="52"/>
+      <c r="BF12" s="52"/>
+      <c r="BG12" s="52"/>
+      <c r="BH12" s="52"/>
+      <c r="BI12" s="52"/>
+      <c r="BJ12" s="52"/>
+      <c r="BK12" s="52"/>
+      <c r="BL12" s="52"/>
+      <c r="BM12" s="52"/>
+      <c r="BN12" s="52"/>
+      <c r="BO12" s="52"/>
+      <c r="BP12" s="52"/>
+      <c r="BQ12" s="52"/>
+      <c r="BR12" s="54"/>
     </row>
     <row r="13" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="47"/>
-      <c r="B13" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="59" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="60">
+      <c r="C13" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="57">
         <v>44871</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="57">
         <v>44875</v>
       </c>
-      <c r="G13" s="61">
+      <c r="G13" s="58">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H13" s="62">
+      <c r="H13" s="59">
         <v>0</v>
       </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="65"/>
-      <c r="AB13" s="65"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="65"/>
-      <c r="AE13" s="65"/>
-      <c r="AF13" s="65"/>
-      <c r="AG13" s="65"/>
-      <c r="AH13" s="65"/>
-      <c r="AI13" s="65"/>
-      <c r="AJ13" s="65"/>
-      <c r="AK13" s="55"/>
-      <c r="AL13" s="55"/>
-      <c r="AM13" s="55"/>
-      <c r="AN13" s="55"/>
-      <c r="AO13" s="55"/>
-      <c r="AP13" s="55"/>
-      <c r="AQ13" s="65"/>
-      <c r="AR13" s="65"/>
-      <c r="AS13" s="65"/>
-      <c r="AT13" s="65"/>
-      <c r="AU13" s="65"/>
-      <c r="AV13" s="65"/>
-      <c r="AW13" s="65"/>
-      <c r="AX13" s="65"/>
-      <c r="AY13" s="55"/>
-      <c r="AZ13" s="55"/>
-      <c r="BA13" s="55"/>
-      <c r="BB13" s="55"/>
-      <c r="BC13" s="55"/>
-      <c r="BD13" s="65"/>
-      <c r="BE13" s="65"/>
-      <c r="BF13" s="65"/>
-      <c r="BG13" s="65"/>
-      <c r="BH13" s="65"/>
-      <c r="BI13" s="65"/>
-      <c r="BJ13" s="65"/>
-      <c r="BK13" s="65"/>
-      <c r="BL13" s="65"/>
-      <c r="BM13" s="65"/>
-      <c r="BN13" s="55"/>
-      <c r="BO13" s="55"/>
-      <c r="BP13" s="55"/>
-      <c r="BQ13" s="55"/>
-      <c r="BR13" s="57"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="62"/>
+      <c r="AD13" s="62"/>
+      <c r="AE13" s="62"/>
+      <c r="AF13" s="62"/>
+      <c r="AG13" s="62"/>
+      <c r="AH13" s="62"/>
+      <c r="AI13" s="62"/>
+      <c r="AJ13" s="62"/>
+      <c r="AK13" s="52"/>
+      <c r="AL13" s="52"/>
+      <c r="AM13" s="52"/>
+      <c r="AN13" s="52"/>
+      <c r="AO13" s="52"/>
+      <c r="AP13" s="52"/>
+      <c r="AQ13" s="62"/>
+      <c r="AR13" s="62"/>
+      <c r="AS13" s="62"/>
+      <c r="AT13" s="62"/>
+      <c r="AU13" s="62"/>
+      <c r="AV13" s="62"/>
+      <c r="AW13" s="62"/>
+      <c r="AX13" s="62"/>
+      <c r="AY13" s="52"/>
+      <c r="AZ13" s="52"/>
+      <c r="BA13" s="52"/>
+      <c r="BB13" s="52"/>
+      <c r="BC13" s="52"/>
+      <c r="BD13" s="62"/>
+      <c r="BE13" s="62"/>
+      <c r="BF13" s="62"/>
+      <c r="BG13" s="62"/>
+      <c r="BH13" s="62"/>
+      <c r="BI13" s="62"/>
+      <c r="BJ13" s="62"/>
+      <c r="BK13" s="62"/>
+      <c r="BL13" s="62"/>
+      <c r="BM13" s="62"/>
+      <c r="BN13" s="52"/>
+      <c r="BO13" s="52"/>
+      <c r="BP13" s="52"/>
+      <c r="BQ13" s="52"/>
+      <c r="BR13" s="54"/>
     </row>
     <row r="14" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="47"/>
-      <c r="B14" s="67">
+      <c r="A14" s="44"/>
+      <c r="B14" s="64">
         <v>1.3</v>
       </c>
-      <c r="C14" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="60">
+      <c r="C14" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="57">
         <v>44876</v>
       </c>
-      <c r="F14" s="60">
+      <c r="F14" s="57">
         <v>44878</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="58">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="59">
         <v>0</v>
       </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="65"/>
-      <c r="AB14" s="65"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="65"/>
-      <c r="AE14" s="65"/>
-      <c r="AF14" s="65"/>
-      <c r="AG14" s="65"/>
-      <c r="AH14" s="65"/>
-      <c r="AI14" s="65"/>
-      <c r="AJ14" s="65"/>
-      <c r="AK14" s="55"/>
-      <c r="AL14" s="55"/>
-      <c r="AM14" s="55"/>
-      <c r="AN14" s="55"/>
-      <c r="AO14" s="55"/>
-      <c r="AP14" s="55"/>
-      <c r="AQ14" s="65"/>
-      <c r="AR14" s="65"/>
-      <c r="AS14" s="65"/>
-      <c r="AT14" s="65"/>
-      <c r="AU14" s="65"/>
-      <c r="AV14" s="65"/>
-      <c r="AW14" s="65"/>
-      <c r="AX14" s="65"/>
-      <c r="AY14" s="55"/>
-      <c r="AZ14" s="55"/>
-      <c r="BA14" s="55"/>
-      <c r="BB14" s="55"/>
-      <c r="BC14" s="55"/>
-      <c r="BD14" s="65"/>
-      <c r="BE14" s="65"/>
-      <c r="BF14" s="65"/>
-      <c r="BG14" s="65"/>
-      <c r="BH14" s="65"/>
-      <c r="BI14" s="65"/>
-      <c r="BJ14" s="65"/>
-      <c r="BK14" s="65"/>
-      <c r="BL14" s="65"/>
-      <c r="BM14" s="65"/>
-      <c r="BN14" s="55"/>
-      <c r="BO14" s="55"/>
-      <c r="BP14" s="55"/>
-      <c r="BQ14" s="55"/>
-      <c r="BR14" s="57"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="62"/>
+      <c r="AK14" s="52"/>
+      <c r="AL14" s="52"/>
+      <c r="AM14" s="52"/>
+      <c r="AN14" s="52"/>
+      <c r="AO14" s="52"/>
+      <c r="AP14" s="52"/>
+      <c r="AQ14" s="62"/>
+      <c r="AR14" s="62"/>
+      <c r="AS14" s="62"/>
+      <c r="AT14" s="62"/>
+      <c r="AU14" s="62"/>
+      <c r="AV14" s="62"/>
+      <c r="AW14" s="62"/>
+      <c r="AX14" s="62"/>
+      <c r="AY14" s="52"/>
+      <c r="AZ14" s="52"/>
+      <c r="BA14" s="52"/>
+      <c r="BB14" s="52"/>
+      <c r="BC14" s="52"/>
+      <c r="BD14" s="62"/>
+      <c r="BE14" s="62"/>
+      <c r="BF14" s="62"/>
+      <c r="BG14" s="62"/>
+      <c r="BH14" s="62"/>
+      <c r="BI14" s="62"/>
+      <c r="BJ14" s="62"/>
+      <c r="BK14" s="62"/>
+      <c r="BL14" s="62"/>
+      <c r="BM14" s="62"/>
+      <c r="BN14" s="52"/>
+      <c r="BO14" s="52"/>
+      <c r="BP14" s="52"/>
+      <c r="BQ14" s="52"/>
+      <c r="BR14" s="54"/>
     </row>
     <row r="15" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="41">
+      <c r="A15" s="26"/>
+      <c r="B15" s="38">
         <v>2</v>
       </c>
-      <c r="C15" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="44"/>
-      <c r="AC15" s="44"/>
-      <c r="AD15" s="44"/>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="44"/>
-      <c r="AG15" s="44"/>
-      <c r="AH15" s="44"/>
-      <c r="AI15" s="44"/>
-      <c r="AJ15" s="44"/>
-      <c r="AK15" s="44"/>
-      <c r="AL15" s="44"/>
-      <c r="AM15" s="44"/>
-      <c r="AN15" s="44"/>
-      <c r="AO15" s="44"/>
-      <c r="AP15" s="44"/>
-      <c r="AQ15" s="44"/>
-      <c r="AR15" s="44"/>
-      <c r="AS15" s="44"/>
-      <c r="AT15" s="44"/>
-      <c r="AU15" s="44"/>
-      <c r="AV15" s="44"/>
-      <c r="AW15" s="44"/>
-      <c r="AX15" s="44"/>
-      <c r="AY15" s="44"/>
-      <c r="AZ15" s="44"/>
-      <c r="BA15" s="44"/>
-      <c r="BB15" s="44"/>
-      <c r="BC15" s="44"/>
-      <c r="BD15" s="44"/>
-      <c r="BE15" s="44"/>
-      <c r="BF15" s="44"/>
-      <c r="BG15" s="44"/>
-      <c r="BH15" s="44"/>
-      <c r="BI15" s="44"/>
-      <c r="BJ15" s="44"/>
-      <c r="BK15" s="44"/>
-      <c r="BL15" s="44"/>
-      <c r="BM15" s="44"/>
-      <c r="BN15" s="44"/>
-      <c r="BO15" s="44"/>
-      <c r="BP15" s="44"/>
-      <c r="BQ15" s="44"/>
-      <c r="BR15" s="34"/>
+      <c r="C15" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="41"/>
+      <c r="AC15" s="41"/>
+      <c r="AD15" s="41"/>
+      <c r="AE15" s="41"/>
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="41"/>
+      <c r="AH15" s="41"/>
+      <c r="AI15" s="41"/>
+      <c r="AJ15" s="41"/>
+      <c r="AK15" s="41"/>
+      <c r="AL15" s="41"/>
+      <c r="AM15" s="41"/>
+      <c r="AN15" s="41"/>
+      <c r="AO15" s="41"/>
+      <c r="AP15" s="41"/>
+      <c r="AQ15" s="41"/>
+      <c r="AR15" s="41"/>
+      <c r="AS15" s="41"/>
+      <c r="AT15" s="41"/>
+      <c r="AU15" s="41"/>
+      <c r="AV15" s="41"/>
+      <c r="AW15" s="41"/>
+      <c r="AX15" s="41"/>
+      <c r="AY15" s="41"/>
+      <c r="AZ15" s="41"/>
+      <c r="BA15" s="41"/>
+      <c r="BB15" s="41"/>
+      <c r="BC15" s="41"/>
+      <c r="BD15" s="41"/>
+      <c r="BE15" s="41"/>
+      <c r="BF15" s="41"/>
+      <c r="BG15" s="41"/>
+      <c r="BH15" s="41"/>
+      <c r="BI15" s="41"/>
+      <c r="BJ15" s="41"/>
+      <c r="BK15" s="41"/>
+      <c r="BL15" s="41"/>
+      <c r="BM15" s="41"/>
+      <c r="BN15" s="41"/>
+      <c r="BO15" s="41"/>
+      <c r="BP15" s="41"/>
+      <c r="BQ15" s="41"/>
+      <c r="BR15" s="31"/>
     </row>
     <row r="16" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48">
+      <c r="A16" s="44"/>
+      <c r="B16" s="45">
         <v>2.1</v>
       </c>
-      <c r="C16" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="50">
+      <c r="C16" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="47">
         <v>44879</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="47">
         <v>44885</v>
       </c>
-      <c r="G16" s="61">
+      <c r="G16" s="58">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="49">
         <v>0</v>
       </c>
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="66"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="66"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="65"/>
-      <c r="AE16" s="65"/>
-      <c r="AF16" s="65"/>
-      <c r="AG16" s="65"/>
-      <c r="AH16" s="65"/>
-      <c r="AI16" s="65"/>
-      <c r="AJ16" s="55"/>
-      <c r="AK16" s="55"/>
-      <c r="AL16" s="55"/>
-      <c r="AM16" s="55"/>
-      <c r="AN16" s="55"/>
-      <c r="AO16" s="55"/>
-      <c r="AP16" s="55"/>
-      <c r="AQ16" s="55"/>
-      <c r="AR16" s="55"/>
-      <c r="AS16" s="55"/>
-      <c r="AT16" s="55"/>
-      <c r="AU16" s="55"/>
-      <c r="AV16" s="55"/>
-      <c r="AW16" s="55"/>
-      <c r="AX16" s="55"/>
-      <c r="AY16" s="55"/>
-      <c r="AZ16" s="55"/>
-      <c r="BA16" s="55"/>
-      <c r="BB16" s="55"/>
-      <c r="BC16" s="55"/>
-      <c r="BD16" s="55"/>
-      <c r="BE16" s="55"/>
-      <c r="BF16" s="55"/>
-      <c r="BG16" s="55"/>
-      <c r="BH16" s="55"/>
-      <c r="BI16" s="55"/>
-      <c r="BJ16" s="55"/>
-      <c r="BK16" s="55"/>
-      <c r="BL16" s="55"/>
-      <c r="BM16" s="55"/>
-      <c r="BN16" s="55"/>
-      <c r="BO16" s="55"/>
-      <c r="BP16" s="55"/>
-      <c r="BQ16" s="55"/>
-      <c r="BR16" s="57"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="62"/>
+      <c r="AE16" s="62"/>
+      <c r="AF16" s="62"/>
+      <c r="AG16" s="62"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="62"/>
+      <c r="AJ16" s="52"/>
+      <c r="AK16" s="52"/>
+      <c r="AL16" s="52"/>
+      <c r="AM16" s="52"/>
+      <c r="AN16" s="52"/>
+      <c r="AO16" s="52"/>
+      <c r="AP16" s="52"/>
+      <c r="AQ16" s="52"/>
+      <c r="AR16" s="52"/>
+      <c r="AS16" s="52"/>
+      <c r="AT16" s="52"/>
+      <c r="AU16" s="52"/>
+      <c r="AV16" s="52"/>
+      <c r="AW16" s="52"/>
+      <c r="AX16" s="52"/>
+      <c r="AY16" s="52"/>
+      <c r="AZ16" s="52"/>
+      <c r="BA16" s="52"/>
+      <c r="BB16" s="52"/>
+      <c r="BC16" s="52"/>
+      <c r="BD16" s="52"/>
+      <c r="BE16" s="52"/>
+      <c r="BF16" s="52"/>
+      <c r="BG16" s="52"/>
+      <c r="BH16" s="52"/>
+      <c r="BI16" s="52"/>
+      <c r="BJ16" s="52"/>
+      <c r="BK16" s="52"/>
+      <c r="BL16" s="52"/>
+      <c r="BM16" s="52"/>
+      <c r="BN16" s="52"/>
+      <c r="BO16" s="52"/>
+      <c r="BP16" s="52"/>
+      <c r="BQ16" s="52"/>
+      <c r="BR16" s="54"/>
     </row>
     <row r="17" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="47"/>
-      <c r="B17" s="67">
+      <c r="A17" s="44"/>
+      <c r="B17" s="64">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C17" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="60">
+      <c r="C17" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="57">
         <v>44886</v>
       </c>
-      <c r="F17" s="60">
+      <c r="F17" s="57">
         <v>44890</v>
       </c>
-      <c r="G17" s="61">
+      <c r="G17" s="58">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H17" s="62">
+      <c r="H17" s="59">
         <v>0</v>
       </c>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="65"/>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="66"/>
-      <c r="AE17" s="66"/>
-      <c r="AF17" s="66"/>
-      <c r="AG17" s="66"/>
-      <c r="AH17" s="65"/>
-      <c r="AI17" s="65"/>
-      <c r="AJ17" s="55"/>
-      <c r="AK17" s="55"/>
-      <c r="AL17" s="55"/>
-      <c r="AM17" s="55"/>
-      <c r="AN17" s="55"/>
-      <c r="AO17" s="55"/>
-      <c r="AP17" s="65"/>
-      <c r="AQ17" s="65"/>
-      <c r="AR17" s="65"/>
-      <c r="AS17" s="65"/>
-      <c r="AT17" s="65"/>
-      <c r="AU17" s="65"/>
-      <c r="AV17" s="65"/>
-      <c r="AW17" s="65"/>
-      <c r="AX17" s="65"/>
-      <c r="AY17" s="55"/>
-      <c r="AZ17" s="55"/>
-      <c r="BA17" s="55"/>
-      <c r="BB17" s="55"/>
-      <c r="BC17" s="55"/>
-      <c r="BD17" s="65"/>
-      <c r="BE17" s="65"/>
-      <c r="BF17" s="65"/>
-      <c r="BG17" s="65"/>
-      <c r="BH17" s="65"/>
-      <c r="BI17" s="65"/>
-      <c r="BJ17" s="65"/>
-      <c r="BK17" s="65"/>
-      <c r="BL17" s="65"/>
-      <c r="BM17" s="65"/>
-      <c r="BN17" s="55"/>
-      <c r="BO17" s="55"/>
-      <c r="BP17" s="55"/>
-      <c r="BQ17" s="55"/>
-      <c r="BR17" s="57"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="62"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="63"/>
+      <c r="AH17" s="62"/>
+      <c r="AI17" s="62"/>
+      <c r="AJ17" s="52"/>
+      <c r="AK17" s="52"/>
+      <c r="AL17" s="52"/>
+      <c r="AM17" s="52"/>
+      <c r="AN17" s="52"/>
+      <c r="AO17" s="52"/>
+      <c r="AP17" s="62"/>
+      <c r="AQ17" s="62"/>
+      <c r="AR17" s="62"/>
+      <c r="AS17" s="62"/>
+      <c r="AT17" s="62"/>
+      <c r="AU17" s="62"/>
+      <c r="AV17" s="62"/>
+      <c r="AW17" s="62"/>
+      <c r="AX17" s="62"/>
+      <c r="AY17" s="52"/>
+      <c r="AZ17" s="52"/>
+      <c r="BA17" s="52"/>
+      <c r="BB17" s="52"/>
+      <c r="BC17" s="52"/>
+      <c r="BD17" s="62"/>
+      <c r="BE17" s="62"/>
+      <c r="BF17" s="62"/>
+      <c r="BG17" s="62"/>
+      <c r="BH17" s="62"/>
+      <c r="BI17" s="62"/>
+      <c r="BJ17" s="62"/>
+      <c r="BK17" s="62"/>
+      <c r="BL17" s="62"/>
+      <c r="BM17" s="62"/>
+      <c r="BN17" s="52"/>
+      <c r="BO17" s="52"/>
+      <c r="BP17" s="52"/>
+      <c r="BQ17" s="52"/>
+      <c r="BR17" s="54"/>
     </row>
     <row r="18" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="47"/>
-      <c r="B18" s="67">
+      <c r="A18" s="44"/>
+      <c r="B18" s="64">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C18" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="60">
+      <c r="C18" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="57">
         <v>44891</v>
       </c>
-      <c r="F18" s="60">
+      <c r="F18" s="57">
         <v>44892</v>
       </c>
-      <c r="G18" s="61">
+      <c r="G18" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H18" s="62">
+      <c r="H18" s="59">
         <v>0</v>
       </c>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="65"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="65"/>
-      <c r="AG18" s="65"/>
-      <c r="AH18" s="66"/>
-      <c r="AI18" s="66"/>
-      <c r="AJ18" s="55"/>
-      <c r="AK18" s="55"/>
-      <c r="AL18" s="55"/>
-      <c r="AM18" s="55"/>
-      <c r="AN18" s="55"/>
-      <c r="AO18" s="55"/>
-      <c r="AP18" s="65"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="65"/>
-      <c r="AT18" s="65"/>
-      <c r="AU18" s="65"/>
-      <c r="AV18" s="65"/>
-      <c r="AW18" s="65"/>
-      <c r="AX18" s="65"/>
-      <c r="AY18" s="55"/>
-      <c r="AZ18" s="55"/>
-      <c r="BA18" s="55"/>
-      <c r="BB18" s="55"/>
-      <c r="BC18" s="55"/>
-      <c r="BD18" s="65"/>
-      <c r="BE18" s="65"/>
-      <c r="BF18" s="65"/>
-      <c r="BG18" s="65"/>
-      <c r="BH18" s="65"/>
-      <c r="BI18" s="65"/>
-      <c r="BJ18" s="65"/>
-      <c r="BK18" s="65"/>
-      <c r="BL18" s="65"/>
-      <c r="BM18" s="65"/>
-      <c r="BN18" s="55"/>
-      <c r="BO18" s="55"/>
-      <c r="BP18" s="55"/>
-      <c r="BQ18" s="55"/>
-      <c r="BR18" s="57"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="62"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="63"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="52"/>
+      <c r="AK18" s="52"/>
+      <c r="AL18" s="52"/>
+      <c r="AM18" s="52"/>
+      <c r="AN18" s="52"/>
+      <c r="AO18" s="52"/>
+      <c r="AP18" s="62"/>
+      <c r="AQ18" s="62"/>
+      <c r="AR18" s="62"/>
+      <c r="AS18" s="62"/>
+      <c r="AT18" s="62"/>
+      <c r="AU18" s="62"/>
+      <c r="AV18" s="62"/>
+      <c r="AW18" s="62"/>
+      <c r="AX18" s="62"/>
+      <c r="AY18" s="52"/>
+      <c r="AZ18" s="52"/>
+      <c r="BA18" s="52"/>
+      <c r="BB18" s="52"/>
+      <c r="BC18" s="52"/>
+      <c r="BD18" s="62"/>
+      <c r="BE18" s="62"/>
+      <c r="BF18" s="62"/>
+      <c r="BG18" s="62"/>
+      <c r="BH18" s="62"/>
+      <c r="BI18" s="62"/>
+      <c r="BJ18" s="62"/>
+      <c r="BK18" s="62"/>
+      <c r="BL18" s="62"/>
+      <c r="BM18" s="62"/>
+      <c r="BN18" s="52"/>
+      <c r="BO18" s="52"/>
+      <c r="BP18" s="52"/>
+      <c r="BQ18" s="52"/>
+      <c r="BR18" s="54"/>
     </row>
     <row r="19" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="29"/>
-      <c r="B19" s="68">
+      <c r="A19" s="26"/>
+      <c r="B19" s="65">
         <v>3</v>
       </c>
-      <c r="C19" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="74"/>
-      <c r="S19" s="74"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="74"/>
-      <c r="W19" s="71"/>
-      <c r="X19" s="71"/>
-      <c r="Y19" s="71"/>
-      <c r="Z19" s="71"/>
-      <c r="AA19" s="71"/>
-      <c r="AB19" s="71"/>
-      <c r="AC19" s="71"/>
-      <c r="AD19" s="71"/>
-      <c r="AE19" s="71"/>
-      <c r="AF19" s="71"/>
-      <c r="AG19" s="71"/>
-      <c r="AH19" s="71"/>
-      <c r="AI19" s="71"/>
-      <c r="AJ19" s="71"/>
-      <c r="AK19" s="71"/>
-      <c r="AL19" s="71"/>
-      <c r="AM19" s="71"/>
-      <c r="AN19" s="71"/>
-      <c r="AO19" s="71"/>
-      <c r="AP19" s="71"/>
-      <c r="AQ19" s="71"/>
-      <c r="AR19" s="71"/>
-      <c r="AS19" s="71"/>
-      <c r="AT19" s="71"/>
-      <c r="AU19" s="71"/>
-      <c r="AV19" s="71"/>
-      <c r="AW19" s="71"/>
-      <c r="AX19" s="71"/>
-      <c r="AY19" s="71"/>
-      <c r="AZ19" s="71"/>
-      <c r="BA19" s="71"/>
-      <c r="BB19" s="71"/>
-      <c r="BC19" s="71"/>
-      <c r="BD19" s="71"/>
-      <c r="BE19" s="71"/>
-      <c r="BF19" s="71"/>
-      <c r="BG19" s="71"/>
-      <c r="BH19" s="71"/>
-      <c r="BI19" s="71"/>
-      <c r="BJ19" s="71"/>
-      <c r="BK19" s="71"/>
-      <c r="BL19" s="71"/>
-      <c r="BM19" s="71"/>
-      <c r="BN19" s="71"/>
-      <c r="BO19" s="71"/>
-      <c r="BP19" s="71"/>
-      <c r="BQ19" s="71"/>
-      <c r="BR19" s="34"/>
+      <c r="C19" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="68"/>
+      <c r="X19" s="68"/>
+      <c r="Y19" s="68"/>
+      <c r="Z19" s="68"/>
+      <c r="AA19" s="68"/>
+      <c r="AB19" s="68"/>
+      <c r="AC19" s="68"/>
+      <c r="AD19" s="68"/>
+      <c r="AE19" s="68"/>
+      <c r="AF19" s="68"/>
+      <c r="AG19" s="68"/>
+      <c r="AH19" s="68"/>
+      <c r="AI19" s="68"/>
+      <c r="AJ19" s="68"/>
+      <c r="AK19" s="68"/>
+      <c r="AL19" s="68"/>
+      <c r="AM19" s="68"/>
+      <c r="AN19" s="68"/>
+      <c r="AO19" s="68"/>
+      <c r="AP19" s="68"/>
+      <c r="AQ19" s="68"/>
+      <c r="AR19" s="68"/>
+      <c r="AS19" s="68"/>
+      <c r="AT19" s="68"/>
+      <c r="AU19" s="68"/>
+      <c r="AV19" s="68"/>
+      <c r="AW19" s="68"/>
+      <c r="AX19" s="68"/>
+      <c r="AY19" s="68"/>
+      <c r="AZ19" s="68"/>
+      <c r="BA19" s="68"/>
+      <c r="BB19" s="68"/>
+      <c r="BC19" s="68"/>
+      <c r="BD19" s="68"/>
+      <c r="BE19" s="68"/>
+      <c r="BF19" s="68"/>
+      <c r="BG19" s="68"/>
+      <c r="BH19" s="68"/>
+      <c r="BI19" s="68"/>
+      <c r="BJ19" s="68"/>
+      <c r="BK19" s="68"/>
+      <c r="BL19" s="68"/>
+      <c r="BM19" s="68"/>
+      <c r="BN19" s="68"/>
+      <c r="BO19" s="68"/>
+      <c r="BP19" s="68"/>
+      <c r="BQ19" s="68"/>
+      <c r="BR19" s="31"/>
     </row>
     <row r="20" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48">
+      <c r="A20" s="44"/>
+      <c r="B20" s="45">
         <v>3.1</v>
       </c>
-      <c r="C20" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="50">
+      <c r="C20" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="47">
         <v>44893</v>
       </c>
-      <c r="F20" s="50">
+      <c r="F20" s="47">
         <v>44895</v>
       </c>
-      <c r="G20" s="61">
+      <c r="G20" s="58">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H20" s="52">
+      <c r="H20" s="49">
         <v>0</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="55"/>
-      <c r="AA20" s="55"/>
-      <c r="AB20" s="55"/>
-      <c r="AC20" s="55"/>
-      <c r="AD20" s="55"/>
-      <c r="AE20" s="55"/>
-      <c r="AF20" s="55"/>
-      <c r="AG20" s="55"/>
-      <c r="AH20" s="55"/>
-      <c r="AI20" s="55"/>
-      <c r="AJ20" s="66"/>
-      <c r="AK20" s="66"/>
-      <c r="AL20" s="66"/>
-      <c r="AM20" s="55"/>
-      <c r="AN20" s="55"/>
-      <c r="AO20" s="55"/>
-      <c r="AP20" s="55"/>
-      <c r="AQ20" s="55"/>
-      <c r="AR20" s="55"/>
-      <c r="AS20" s="55"/>
-      <c r="AT20" s="55"/>
-      <c r="AU20" s="55"/>
-      <c r="AV20" s="55"/>
-      <c r="AW20" s="55"/>
-      <c r="AX20" s="55"/>
-      <c r="AY20" s="55"/>
-      <c r="AZ20" s="55"/>
-      <c r="BA20" s="55"/>
-      <c r="BB20" s="55"/>
-      <c r="BC20" s="55"/>
-      <c r="BD20" s="55"/>
-      <c r="BE20" s="55"/>
-      <c r="BF20" s="55"/>
-      <c r="BG20" s="55"/>
-      <c r="BH20" s="55"/>
-      <c r="BI20" s="55"/>
-      <c r="BJ20" s="55"/>
-      <c r="BK20" s="55"/>
-      <c r="BL20" s="55"/>
-      <c r="BM20" s="55"/>
-      <c r="BN20" s="55"/>
-      <c r="BO20" s="55"/>
-      <c r="BP20" s="55"/>
-      <c r="BQ20" s="55"/>
-      <c r="BR20" s="57"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="52"/>
+      <c r="AD20" s="52"/>
+      <c r="AE20" s="52"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="52"/>
+      <c r="AH20" s="52"/>
+      <c r="AI20" s="52"/>
+      <c r="AJ20" s="63"/>
+      <c r="AK20" s="63"/>
+      <c r="AL20" s="63"/>
+      <c r="AM20" s="52"/>
+      <c r="AN20" s="52"/>
+      <c r="AO20" s="52"/>
+      <c r="AP20" s="52"/>
+      <c r="AQ20" s="52"/>
+      <c r="AR20" s="52"/>
+      <c r="AS20" s="52"/>
+      <c r="AT20" s="52"/>
+      <c r="AU20" s="52"/>
+      <c r="AV20" s="52"/>
+      <c r="AW20" s="52"/>
+      <c r="AX20" s="52"/>
+      <c r="AY20" s="52"/>
+      <c r="AZ20" s="52"/>
+      <c r="BA20" s="52"/>
+      <c r="BB20" s="52"/>
+      <c r="BC20" s="52"/>
+      <c r="BD20" s="52"/>
+      <c r="BE20" s="52"/>
+      <c r="BF20" s="52"/>
+      <c r="BG20" s="52"/>
+      <c r="BH20" s="52"/>
+      <c r="BI20" s="52"/>
+      <c r="BJ20" s="52"/>
+      <c r="BK20" s="52"/>
+      <c r="BL20" s="52"/>
+      <c r="BM20" s="52"/>
+      <c r="BN20" s="52"/>
+      <c r="BO20" s="52"/>
+      <c r="BP20" s="52"/>
+      <c r="BQ20" s="52"/>
+      <c r="BR20" s="54"/>
     </row>
     <row r="21" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="47"/>
-      <c r="B21" s="67">
+      <c r="A21" s="44"/>
+      <c r="B21" s="64">
         <v>3.2</v>
       </c>
-      <c r="C21" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="60">
+      <c r="C21" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="57">
         <v>44896</v>
       </c>
-      <c r="F21" s="60">
+      <c r="F21" s="57">
         <v>44900</v>
       </c>
-      <c r="G21" s="61">
+      <c r="G21" s="58">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H21" s="62">
+      <c r="H21" s="59">
         <v>0</v>
       </c>
-      <c r="I21" s="63"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="65"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="65"/>
-      <c r="AE21" s="65"/>
-      <c r="AF21" s="65"/>
-      <c r="AG21" s="65"/>
-      <c r="AH21" s="65"/>
-      <c r="AI21" s="65"/>
-      <c r="AJ21" s="55"/>
-      <c r="AK21" s="55"/>
-      <c r="AL21" s="55"/>
-      <c r="AM21" s="82"/>
-      <c r="AN21" s="82"/>
-      <c r="AO21" s="82"/>
-      <c r="AP21" s="82"/>
-      <c r="AQ21" s="82"/>
-      <c r="AR21" s="65"/>
-      <c r="AS21" s="65"/>
-      <c r="AT21" s="65"/>
-      <c r="AU21" s="65"/>
-      <c r="AV21" s="65"/>
-      <c r="AW21" s="65"/>
-      <c r="AX21" s="65"/>
-      <c r="AY21" s="55"/>
-      <c r="AZ21" s="55"/>
-      <c r="BA21" s="55"/>
-      <c r="BB21" s="55"/>
-      <c r="BC21" s="55"/>
-      <c r="BD21" s="65"/>
-      <c r="BE21" s="65"/>
-      <c r="BF21" s="65"/>
-      <c r="BG21" s="65"/>
-      <c r="BH21" s="65"/>
-      <c r="BI21" s="65"/>
-      <c r="BJ21" s="65"/>
-      <c r="BK21" s="65"/>
-      <c r="BL21" s="65"/>
-      <c r="BM21" s="65"/>
-      <c r="BN21" s="55"/>
-      <c r="BO21" s="55"/>
-      <c r="BP21" s="55"/>
-      <c r="BQ21" s="55"/>
-      <c r="BR21" s="57"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="62"/>
+      <c r="AB21" s="62"/>
+      <c r="AC21" s="62"/>
+      <c r="AD21" s="62"/>
+      <c r="AE21" s="62"/>
+      <c r="AF21" s="62"/>
+      <c r="AG21" s="62"/>
+      <c r="AH21" s="62"/>
+      <c r="AI21" s="62"/>
+      <c r="AJ21" s="52"/>
+      <c r="AK21" s="52"/>
+      <c r="AL21" s="52"/>
+      <c r="AM21" s="79"/>
+      <c r="AN21" s="79"/>
+      <c r="AO21" s="79"/>
+      <c r="AP21" s="79"/>
+      <c r="AQ21" s="79"/>
+      <c r="AR21" s="62"/>
+      <c r="AS21" s="62"/>
+      <c r="AT21" s="62"/>
+      <c r="AU21" s="62"/>
+      <c r="AV21" s="62"/>
+      <c r="AW21" s="62"/>
+      <c r="AX21" s="62"/>
+      <c r="AY21" s="52"/>
+      <c r="AZ21" s="52"/>
+      <c r="BA21" s="52"/>
+      <c r="BB21" s="52"/>
+      <c r="BC21" s="52"/>
+      <c r="BD21" s="62"/>
+      <c r="BE21" s="62"/>
+      <c r="BF21" s="62"/>
+      <c r="BG21" s="62"/>
+      <c r="BH21" s="62"/>
+      <c r="BI21" s="62"/>
+      <c r="BJ21" s="62"/>
+      <c r="BK21" s="62"/>
+      <c r="BL21" s="62"/>
+      <c r="BM21" s="62"/>
+      <c r="BN21" s="52"/>
+      <c r="BO21" s="52"/>
+      <c r="BP21" s="52"/>
+      <c r="BQ21" s="52"/>
+      <c r="BR21" s="54"/>
     </row>
     <row r="22" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="47"/>
-      <c r="B22" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="60">
+      <c r="A22" s="44"/>
+      <c r="B22" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="57">
         <v>44901</v>
       </c>
-      <c r="F22" s="60">
+      <c r="F22" s="57">
         <v>44902</v>
       </c>
-      <c r="G22" s="61">
+      <c r="G22" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H22" s="62">
+      <c r="H22" s="59">
         <v>0</v>
       </c>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="65"/>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="65"/>
-      <c r="AA22" s="65"/>
-      <c r="AB22" s="65"/>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="65"/>
-      <c r="AE22" s="65"/>
-      <c r="AF22" s="65"/>
-      <c r="AG22" s="65"/>
-      <c r="AH22" s="65"/>
-      <c r="AI22" s="65"/>
-      <c r="AJ22" s="55"/>
-      <c r="AK22" s="55"/>
-      <c r="AL22" s="55"/>
-      <c r="AM22" s="55"/>
-      <c r="AN22" s="55"/>
-      <c r="AO22" s="55"/>
-      <c r="AP22" s="65"/>
-      <c r="AQ22" s="65"/>
-      <c r="AR22" s="82"/>
-      <c r="AS22" s="82"/>
-      <c r="AT22" s="65"/>
-      <c r="AU22" s="65"/>
-      <c r="AV22" s="65"/>
-      <c r="AW22" s="65"/>
-      <c r="AX22" s="65"/>
-      <c r="AY22" s="55"/>
-      <c r="AZ22" s="55"/>
-      <c r="BA22" s="55"/>
-      <c r="BB22" s="55"/>
-      <c r="BC22" s="55"/>
-      <c r="BD22" s="65"/>
-      <c r="BE22" s="65"/>
-      <c r="BF22" s="65"/>
-      <c r="BG22" s="65"/>
-      <c r="BH22" s="65"/>
-      <c r="BI22" s="65"/>
-      <c r="BJ22" s="65"/>
-      <c r="BK22" s="65"/>
-      <c r="BL22" s="65"/>
-      <c r="BM22" s="65"/>
-      <c r="BN22" s="55"/>
-      <c r="BO22" s="55"/>
-      <c r="BP22" s="55"/>
-      <c r="BQ22" s="55"/>
-      <c r="BR22" s="57"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="62"/>
+      <c r="AB22" s="62"/>
+      <c r="AC22" s="62"/>
+      <c r="AD22" s="62"/>
+      <c r="AE22" s="62"/>
+      <c r="AF22" s="62"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="62"/>
+      <c r="AJ22" s="52"/>
+      <c r="AK22" s="52"/>
+      <c r="AL22" s="52"/>
+      <c r="AM22" s="52"/>
+      <c r="AN22" s="52"/>
+      <c r="AO22" s="52"/>
+      <c r="AP22" s="62"/>
+      <c r="AQ22" s="62"/>
+      <c r="AR22" s="79"/>
+      <c r="AS22" s="79"/>
+      <c r="AT22" s="62"/>
+      <c r="AU22" s="62"/>
+      <c r="AV22" s="62"/>
+      <c r="AW22" s="62"/>
+      <c r="AX22" s="62"/>
+      <c r="AY22" s="52"/>
+      <c r="AZ22" s="52"/>
+      <c r="BA22" s="52"/>
+      <c r="BB22" s="52"/>
+      <c r="BC22" s="52"/>
+      <c r="BD22" s="62"/>
+      <c r="BE22" s="62"/>
+      <c r="BF22" s="62"/>
+      <c r="BG22" s="62"/>
+      <c r="BH22" s="62"/>
+      <c r="BI22" s="62"/>
+      <c r="BJ22" s="62"/>
+      <c r="BK22" s="62"/>
+      <c r="BL22" s="62"/>
+      <c r="BM22" s="62"/>
+      <c r="BN22" s="52"/>
+      <c r="BO22" s="52"/>
+      <c r="BP22" s="52"/>
+      <c r="BQ22" s="52"/>
+      <c r="BR22" s="54"/>
     </row>
     <row r="23" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="47"/>
-      <c r="B23" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="60">
+      <c r="A23" s="44"/>
+      <c r="B23" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="57">
         <v>44903</v>
       </c>
-      <c r="F23" s="60">
+      <c r="F23" s="57">
         <v>44910</v>
       </c>
-      <c r="G23" s="61">
+      <c r="G23" s="58">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H23" s="62">
+      <c r="H23" s="59">
         <v>0</v>
       </c>
-      <c r="I23" s="63"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
-      <c r="AB23" s="65"/>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="65"/>
-      <c r="AE23" s="65"/>
-      <c r="AF23" s="65"/>
-      <c r="AG23" s="65"/>
-      <c r="AH23" s="65"/>
-      <c r="AI23" s="65"/>
-      <c r="AJ23" s="55"/>
-      <c r="AK23" s="55"/>
-      <c r="AL23" s="55"/>
-      <c r="AM23" s="55"/>
-      <c r="AN23" s="55"/>
-      <c r="AO23" s="55"/>
-      <c r="AP23" s="65"/>
-      <c r="AQ23" s="65"/>
-      <c r="AR23" s="65"/>
-      <c r="AS23" s="65"/>
-      <c r="AT23" s="82"/>
-      <c r="AU23" s="82"/>
-      <c r="AV23" s="82"/>
-      <c r="AW23" s="82"/>
-      <c r="AX23" s="82"/>
-      <c r="AY23" s="82"/>
-      <c r="AZ23" s="82"/>
-      <c r="BA23" s="82"/>
-      <c r="BB23" s="55"/>
-      <c r="BC23" s="55"/>
-      <c r="BD23" s="65"/>
-      <c r="BE23" s="65"/>
-      <c r="BF23" s="65"/>
-      <c r="BG23" s="65"/>
-      <c r="BH23" s="65"/>
-      <c r="BI23" s="65"/>
-      <c r="BJ23" s="65"/>
-      <c r="BK23" s="65"/>
-      <c r="BL23" s="65"/>
-      <c r="BM23" s="65"/>
-      <c r="BN23" s="55"/>
-      <c r="BO23" s="55"/>
-      <c r="BP23" s="55"/>
-      <c r="BQ23" s="55"/>
-      <c r="BR23" s="57"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
+      <c r="AA23" s="62"/>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="62"/>
+      <c r="AE23" s="62"/>
+      <c r="AF23" s="62"/>
+      <c r="AG23" s="62"/>
+      <c r="AH23" s="62"/>
+      <c r="AI23" s="62"/>
+      <c r="AJ23" s="52"/>
+      <c r="AK23" s="52"/>
+      <c r="AL23" s="52"/>
+      <c r="AM23" s="52"/>
+      <c r="AN23" s="52"/>
+      <c r="AO23" s="52"/>
+      <c r="AP23" s="62"/>
+      <c r="AQ23" s="62"/>
+      <c r="AR23" s="62"/>
+      <c r="AS23" s="62"/>
+      <c r="AT23" s="79"/>
+      <c r="AU23" s="79"/>
+      <c r="AV23" s="79"/>
+      <c r="AW23" s="79"/>
+      <c r="AX23" s="79"/>
+      <c r="AY23" s="79"/>
+      <c r="AZ23" s="79"/>
+      <c r="BA23" s="79"/>
+      <c r="BB23" s="52"/>
+      <c r="BC23" s="52"/>
+      <c r="BD23" s="62"/>
+      <c r="BE23" s="62"/>
+      <c r="BF23" s="62"/>
+      <c r="BG23" s="62"/>
+      <c r="BH23" s="62"/>
+      <c r="BI23" s="62"/>
+      <c r="BJ23" s="62"/>
+      <c r="BK23" s="62"/>
+      <c r="BL23" s="62"/>
+      <c r="BM23" s="62"/>
+      <c r="BN23" s="52"/>
+      <c r="BO23" s="52"/>
+      <c r="BP23" s="52"/>
+      <c r="BQ23" s="52"/>
+      <c r="BR23" s="54"/>
     </row>
     <row r="24" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="47"/>
-      <c r="B24" s="67">
+      <c r="A24" s="44"/>
+      <c r="B24" s="64">
         <v>3.5</v>
       </c>
-      <c r="C24" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="60">
+      <c r="C24" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="57">
         <v>44911</v>
       </c>
-      <c r="F24" s="60">
+      <c r="F24" s="57">
         <v>44913</v>
       </c>
-      <c r="G24" s="61">
+      <c r="G24" s="58">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H24" s="62">
+      <c r="H24" s="59">
         <v>0</v>
       </c>
-      <c r="I24" s="63"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="65"/>
-      <c r="Y24" s="65"/>
-      <c r="Z24" s="65"/>
-      <c r="AA24" s="65"/>
-      <c r="AB24" s="65"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="65"/>
-      <c r="AE24" s="65"/>
-      <c r="AF24" s="65"/>
-      <c r="AG24" s="65"/>
-      <c r="AH24" s="65"/>
-      <c r="AI24" s="65"/>
-      <c r="AJ24" s="55"/>
-      <c r="AK24" s="55"/>
-      <c r="AL24" s="55"/>
-      <c r="AM24" s="55"/>
-      <c r="AN24" s="55"/>
-      <c r="AO24" s="55"/>
-      <c r="AP24" s="65"/>
-      <c r="AQ24" s="65"/>
-      <c r="AR24" s="65"/>
-      <c r="AS24" s="65"/>
-      <c r="AT24" s="65"/>
-      <c r="AU24" s="65"/>
-      <c r="AV24" s="65"/>
-      <c r="AW24" s="65"/>
-      <c r="AX24" s="65"/>
-      <c r="AY24" s="55"/>
-      <c r="AZ24" s="55"/>
-      <c r="BA24" s="55"/>
-      <c r="BB24" s="82"/>
-      <c r="BC24" s="82"/>
-      <c r="BD24" s="82"/>
-      <c r="BE24" s="65"/>
-      <c r="BF24" s="65"/>
-      <c r="BG24" s="65"/>
-      <c r="BH24" s="65"/>
-      <c r="BI24" s="65"/>
-      <c r="BJ24" s="65"/>
-      <c r="BK24" s="65"/>
-      <c r="BL24" s="65"/>
-      <c r="BM24" s="65"/>
-      <c r="BN24" s="55"/>
-      <c r="BO24" s="55"/>
-      <c r="BP24" s="55"/>
-      <c r="BQ24" s="55"/>
-      <c r="BR24" s="57"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="62"/>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="62"/>
+      <c r="AD24" s="62"/>
+      <c r="AE24" s="62"/>
+      <c r="AF24" s="62"/>
+      <c r="AG24" s="62"/>
+      <c r="AH24" s="62"/>
+      <c r="AI24" s="62"/>
+      <c r="AJ24" s="52"/>
+      <c r="AK24" s="52"/>
+      <c r="AL24" s="52"/>
+      <c r="AM24" s="52"/>
+      <c r="AN24" s="52"/>
+      <c r="AO24" s="52"/>
+      <c r="AP24" s="62"/>
+      <c r="AQ24" s="62"/>
+      <c r="AR24" s="62"/>
+      <c r="AS24" s="62"/>
+      <c r="AT24" s="62"/>
+      <c r="AU24" s="62"/>
+      <c r="AV24" s="62"/>
+      <c r="AW24" s="62"/>
+      <c r="AX24" s="62"/>
+      <c r="AY24" s="52"/>
+      <c r="AZ24" s="52"/>
+      <c r="BA24" s="52"/>
+      <c r="BB24" s="79"/>
+      <c r="BC24" s="79"/>
+      <c r="BD24" s="79"/>
+      <c r="BE24" s="62"/>
+      <c r="BF24" s="62"/>
+      <c r="BG24" s="62"/>
+      <c r="BH24" s="62"/>
+      <c r="BI24" s="62"/>
+      <c r="BJ24" s="62"/>
+      <c r="BK24" s="62"/>
+      <c r="BL24" s="62"/>
+      <c r="BM24" s="62"/>
+      <c r="BN24" s="52"/>
+      <c r="BO24" s="52"/>
+      <c r="BP24" s="52"/>
+      <c r="BQ24" s="52"/>
+      <c r="BR24" s="54"/>
     </row>
     <row r="25" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="29"/>
-      <c r="B25" s="68">
+      <c r="A25" s="26"/>
+      <c r="B25" s="65">
         <v>4</v>
       </c>
-      <c r="C25" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="71"/>
-      <c r="W25" s="71"/>
-      <c r="X25" s="71"/>
-      <c r="Y25" s="71"/>
-      <c r="Z25" s="71"/>
-      <c r="AA25" s="71"/>
-      <c r="AB25" s="71"/>
-      <c r="AC25" s="71"/>
-      <c r="AD25" s="71"/>
-      <c r="AE25" s="71"/>
-      <c r="AF25" s="71"/>
-      <c r="AG25" s="71"/>
-      <c r="AH25" s="71"/>
-      <c r="AI25" s="71"/>
-      <c r="AJ25" s="71"/>
-      <c r="AK25" s="71"/>
-      <c r="AL25" s="71"/>
-      <c r="AM25" s="71"/>
-      <c r="AN25" s="71"/>
-      <c r="AO25" s="71"/>
-      <c r="AP25" s="71"/>
-      <c r="AQ25" s="71"/>
-      <c r="AR25" s="71"/>
-      <c r="AS25" s="71"/>
-      <c r="AT25" s="71"/>
-      <c r="AU25" s="71"/>
-      <c r="AV25" s="71"/>
-      <c r="AW25" s="71"/>
-      <c r="AX25" s="71"/>
-      <c r="AY25" s="71"/>
-      <c r="AZ25" s="71"/>
-      <c r="BA25" s="71"/>
-      <c r="BB25" s="71"/>
-      <c r="BC25" s="71"/>
-      <c r="BD25" s="71"/>
-      <c r="BE25" s="71"/>
-      <c r="BF25" s="71"/>
-      <c r="BG25" s="71"/>
-      <c r="BH25" s="71"/>
-      <c r="BI25" s="71"/>
-      <c r="BJ25" s="71"/>
-      <c r="BK25" s="71"/>
-      <c r="BL25" s="71"/>
-      <c r="BM25" s="71"/>
-      <c r="BN25" s="71"/>
-      <c r="BO25" s="71"/>
-      <c r="BP25" s="71"/>
-      <c r="BQ25" s="71"/>
-      <c r="BR25" s="34"/>
+      <c r="C25" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="68"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="68"/>
+      <c r="Y25" s="68"/>
+      <c r="Z25" s="68"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="68"/>
+      <c r="AC25" s="68"/>
+      <c r="AD25" s="68"/>
+      <c r="AE25" s="68"/>
+      <c r="AF25" s="68"/>
+      <c r="AG25" s="68"/>
+      <c r="AH25" s="68"/>
+      <c r="AI25" s="68"/>
+      <c r="AJ25" s="68"/>
+      <c r="AK25" s="68"/>
+      <c r="AL25" s="68"/>
+      <c r="AM25" s="68"/>
+      <c r="AN25" s="68"/>
+      <c r="AO25" s="68"/>
+      <c r="AP25" s="68"/>
+      <c r="AQ25" s="68"/>
+      <c r="AR25" s="68"/>
+      <c r="AS25" s="68"/>
+      <c r="AT25" s="68"/>
+      <c r="AU25" s="68"/>
+      <c r="AV25" s="68"/>
+      <c r="AW25" s="68"/>
+      <c r="AX25" s="68"/>
+      <c r="AY25" s="68"/>
+      <c r="AZ25" s="68"/>
+      <c r="BA25" s="68"/>
+      <c r="BB25" s="68"/>
+      <c r="BC25" s="68"/>
+      <c r="BD25" s="68"/>
+      <c r="BE25" s="68"/>
+      <c r="BF25" s="68"/>
+      <c r="BG25" s="68"/>
+      <c r="BH25" s="68"/>
+      <c r="BI25" s="68"/>
+      <c r="BJ25" s="68"/>
+      <c r="BK25" s="68"/>
+      <c r="BL25" s="68"/>
+      <c r="BM25" s="68"/>
+      <c r="BN25" s="68"/>
+      <c r="BO25" s="68"/>
+      <c r="BP25" s="68"/>
+      <c r="BQ25" s="68"/>
+      <c r="BR25" s="31"/>
     </row>
     <row r="26" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="47"/>
-      <c r="B26" s="48">
+      <c r="A26" s="44"/>
+      <c r="B26" s="45">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C26" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="50">
+      <c r="C26" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="47">
         <v>44914</v>
       </c>
-      <c r="F26" s="50">
+      <c r="F26" s="47">
         <v>44918</v>
       </c>
-      <c r="G26" s="61">
+      <c r="G26" s="58">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H26" s="52">
+      <c r="H26" s="49">
         <v>0</v>
       </c>
-      <c r="I26" s="53"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="55"/>
-      <c r="AA26" s="55"/>
-      <c r="AB26" s="55"/>
-      <c r="AC26" s="55"/>
-      <c r="AD26" s="55"/>
-      <c r="AE26" s="55"/>
-      <c r="AF26" s="55"/>
-      <c r="AG26" s="55"/>
-      <c r="AH26" s="55"/>
-      <c r="AI26" s="55"/>
-      <c r="AJ26" s="55"/>
-      <c r="AK26" s="55"/>
-      <c r="AL26" s="55"/>
-      <c r="AM26" s="55"/>
-      <c r="AN26" s="55"/>
-      <c r="AO26" s="55"/>
-      <c r="AP26" s="55"/>
-      <c r="AQ26" s="55"/>
-      <c r="AR26" s="55"/>
-      <c r="AS26" s="55"/>
-      <c r="AT26" s="55"/>
-      <c r="AU26" s="55"/>
-      <c r="AV26" s="55"/>
-      <c r="AW26" s="55"/>
-      <c r="AX26" s="55"/>
-      <c r="AY26" s="55"/>
-      <c r="AZ26" s="55"/>
-      <c r="BA26" s="55"/>
-      <c r="BB26" s="55"/>
-      <c r="BC26" s="55"/>
-      <c r="BD26" s="55"/>
-      <c r="BE26" s="82"/>
-      <c r="BF26" s="82"/>
-      <c r="BG26" s="82"/>
-      <c r="BH26" s="82"/>
-      <c r="BI26" s="82"/>
-      <c r="BJ26" s="55"/>
-      <c r="BK26" s="55"/>
-      <c r="BL26" s="55"/>
-      <c r="BM26" s="55"/>
-      <c r="BN26" s="55"/>
-      <c r="BO26" s="55"/>
-      <c r="BP26" s="55"/>
-      <c r="BQ26" s="55"/>
-      <c r="BR26" s="57"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="52"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="52"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="52"/>
+      <c r="AD26" s="52"/>
+      <c r="AE26" s="52"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="52"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="52"/>
+      <c r="AJ26" s="52"/>
+      <c r="AK26" s="52"/>
+      <c r="AL26" s="52"/>
+      <c r="AM26" s="52"/>
+      <c r="AN26" s="52"/>
+      <c r="AO26" s="52"/>
+      <c r="AP26" s="52"/>
+      <c r="AQ26" s="52"/>
+      <c r="AR26" s="52"/>
+      <c r="AS26" s="52"/>
+      <c r="AT26" s="52"/>
+      <c r="AU26" s="52"/>
+      <c r="AV26" s="52"/>
+      <c r="AW26" s="52"/>
+      <c r="AX26" s="52"/>
+      <c r="AY26" s="52"/>
+      <c r="AZ26" s="52"/>
+      <c r="BA26" s="52"/>
+      <c r="BB26" s="52"/>
+      <c r="BC26" s="52"/>
+      <c r="BD26" s="52"/>
+      <c r="BE26" s="79"/>
+      <c r="BF26" s="79"/>
+      <c r="BG26" s="79"/>
+      <c r="BH26" s="79"/>
+      <c r="BI26" s="79"/>
+      <c r="BJ26" s="52"/>
+      <c r="BK26" s="52"/>
+      <c r="BL26" s="52"/>
+      <c r="BM26" s="52"/>
+      <c r="BN26" s="52"/>
+      <c r="BO26" s="52"/>
+      <c r="BP26" s="52"/>
+      <c r="BQ26" s="52"/>
+      <c r="BR26" s="54"/>
     </row>
     <row r="27" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="47"/>
-      <c r="B27" s="67">
+      <c r="A27" s="44"/>
+      <c r="B27" s="64">
         <v>4.2</v>
       </c>
-      <c r="C27" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="60">
+      <c r="C27" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="57">
         <v>44919</v>
       </c>
-      <c r="F27" s="60">
+      <c r="F27" s="57">
         <v>44920</v>
       </c>
-      <c r="G27" s="61">
+      <c r="G27" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H27" s="62">
+      <c r="H27" s="59">
         <v>0</v>
       </c>
-      <c r="I27" s="63"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="55"/>
-      <c r="U27" s="55"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="65"/>
-      <c r="X27" s="65"/>
-      <c r="Y27" s="65"/>
-      <c r="Z27" s="65"/>
-      <c r="AA27" s="65"/>
-      <c r="AB27" s="65"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="65"/>
-      <c r="AE27" s="65"/>
-      <c r="AF27" s="65"/>
-      <c r="AG27" s="65"/>
-      <c r="AH27" s="65"/>
-      <c r="AI27" s="65"/>
-      <c r="AJ27" s="55"/>
-      <c r="AK27" s="55"/>
-      <c r="AL27" s="55"/>
-      <c r="AM27" s="55"/>
-      <c r="AN27" s="55"/>
-      <c r="AO27" s="55"/>
-      <c r="AP27" s="65"/>
-      <c r="AQ27" s="65"/>
-      <c r="AR27" s="65"/>
-      <c r="AS27" s="65"/>
-      <c r="AT27" s="65"/>
-      <c r="AU27" s="65"/>
-      <c r="AV27" s="65"/>
-      <c r="AW27" s="65"/>
-      <c r="AX27" s="65"/>
-      <c r="AY27" s="55"/>
-      <c r="AZ27" s="55"/>
-      <c r="BA27" s="55"/>
-      <c r="BB27" s="55"/>
-      <c r="BC27" s="55"/>
-      <c r="BD27" s="65"/>
-      <c r="BE27" s="65"/>
-      <c r="BF27" s="65"/>
-      <c r="BG27" s="65"/>
-      <c r="BH27" s="65"/>
-      <c r="BI27" s="65"/>
-      <c r="BJ27" s="82"/>
-      <c r="BK27" s="82"/>
-      <c r="BL27" s="65"/>
-      <c r="BM27" s="65"/>
-      <c r="BN27" s="55"/>
-      <c r="BO27" s="55"/>
-      <c r="BP27" s="55"/>
-      <c r="BQ27" s="55"/>
-      <c r="BR27" s="57"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="62"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="62"/>
+      <c r="AE27" s="62"/>
+      <c r="AF27" s="62"/>
+      <c r="AG27" s="62"/>
+      <c r="AH27" s="62"/>
+      <c r="AI27" s="62"/>
+      <c r="AJ27" s="52"/>
+      <c r="AK27" s="52"/>
+      <c r="AL27" s="52"/>
+      <c r="AM27" s="52"/>
+      <c r="AN27" s="52"/>
+      <c r="AO27" s="52"/>
+      <c r="AP27" s="62"/>
+      <c r="AQ27" s="62"/>
+      <c r="AR27" s="62"/>
+      <c r="AS27" s="62"/>
+      <c r="AT27" s="62"/>
+      <c r="AU27" s="62"/>
+      <c r="AV27" s="62"/>
+      <c r="AW27" s="62"/>
+      <c r="AX27" s="62"/>
+      <c r="AY27" s="52"/>
+      <c r="AZ27" s="52"/>
+      <c r="BA27" s="52"/>
+      <c r="BB27" s="52"/>
+      <c r="BC27" s="52"/>
+      <c r="BD27" s="62"/>
+      <c r="BE27" s="62"/>
+      <c r="BF27" s="62"/>
+      <c r="BG27" s="62"/>
+      <c r="BH27" s="62"/>
+      <c r="BI27" s="62"/>
+      <c r="BJ27" s="79"/>
+      <c r="BK27" s="79"/>
+      <c r="BL27" s="62"/>
+      <c r="BM27" s="62"/>
+      <c r="BN27" s="52"/>
+      <c r="BO27" s="52"/>
+      <c r="BP27" s="52"/>
+      <c r="BQ27" s="52"/>
+      <c r="BR27" s="54"/>
     </row>
     <row r="28" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="47"/>
-      <c r="B28" s="67">
+      <c r="A28" s="44"/>
+      <c r="B28" s="64">
         <v>4.3</v>
       </c>
-      <c r="C28" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="60">
+      <c r="C28" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="57">
         <v>44921</v>
       </c>
-      <c r="F28" s="60">
+      <c r="F28" s="57">
         <v>44926</v>
       </c>
-      <c r="G28" s="61">
+      <c r="G28" s="58">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H28" s="62">
+      <c r="H28" s="59">
         <v>0</v>
       </c>
-      <c r="I28" s="63"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="65"/>
-      <c r="X28" s="65"/>
-      <c r="Y28" s="65"/>
-      <c r="Z28" s="65"/>
-      <c r="AA28" s="65"/>
-      <c r="AB28" s="65"/>
-      <c r="AC28" s="65"/>
-      <c r="AD28" s="65"/>
-      <c r="AE28" s="65"/>
-      <c r="AF28" s="65"/>
-      <c r="AG28" s="65"/>
-      <c r="AH28" s="65"/>
-      <c r="AI28" s="65"/>
-      <c r="AJ28" s="55"/>
-      <c r="AK28" s="55"/>
-      <c r="AL28" s="55"/>
-      <c r="AM28" s="55"/>
-      <c r="AN28" s="55"/>
-      <c r="AO28" s="55"/>
-      <c r="AP28" s="65"/>
-      <c r="AQ28" s="65"/>
-      <c r="AR28" s="65"/>
-      <c r="AS28" s="65"/>
-      <c r="AT28" s="65"/>
-      <c r="AU28" s="65"/>
-      <c r="AV28" s="65"/>
-      <c r="AW28" s="65"/>
-      <c r="AX28" s="65"/>
-      <c r="AY28" s="55"/>
-      <c r="AZ28" s="55"/>
-      <c r="BA28" s="55"/>
-      <c r="BB28" s="55"/>
-      <c r="BC28" s="55"/>
-      <c r="BD28" s="65"/>
-      <c r="BE28" s="65"/>
-      <c r="BF28" s="65"/>
-      <c r="BG28" s="65"/>
-      <c r="BH28" s="65"/>
-      <c r="BI28" s="65"/>
-      <c r="BJ28" s="65"/>
-      <c r="BK28" s="65"/>
-      <c r="BL28" s="82"/>
-      <c r="BM28" s="82"/>
-      <c r="BN28" s="82"/>
-      <c r="BO28" s="82"/>
-      <c r="BP28" s="82"/>
-      <c r="BQ28" s="82"/>
-      <c r="BR28" s="57"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="62"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="62"/>
+      <c r="AA28" s="62"/>
+      <c r="AB28" s="62"/>
+      <c r="AC28" s="62"/>
+      <c r="AD28" s="62"/>
+      <c r="AE28" s="62"/>
+      <c r="AF28" s="62"/>
+      <c r="AG28" s="62"/>
+      <c r="AH28" s="62"/>
+      <c r="AI28" s="62"/>
+      <c r="AJ28" s="52"/>
+      <c r="AK28" s="52"/>
+      <c r="AL28" s="52"/>
+      <c r="AM28" s="52"/>
+      <c r="AN28" s="52"/>
+      <c r="AO28" s="52"/>
+      <c r="AP28" s="62"/>
+      <c r="AQ28" s="62"/>
+      <c r="AR28" s="62"/>
+      <c r="AS28" s="62"/>
+      <c r="AT28" s="62"/>
+      <c r="AU28" s="62"/>
+      <c r="AV28" s="62"/>
+      <c r="AW28" s="62"/>
+      <c r="AX28" s="62"/>
+      <c r="AY28" s="52"/>
+      <c r="AZ28" s="52"/>
+      <c r="BA28" s="52"/>
+      <c r="BB28" s="52"/>
+      <c r="BC28" s="52"/>
+      <c r="BD28" s="62"/>
+      <c r="BE28" s="62"/>
+      <c r="BF28" s="62"/>
+      <c r="BG28" s="62"/>
+      <c r="BH28" s="62"/>
+      <c r="BI28" s="62"/>
+      <c r="BJ28" s="62"/>
+      <c r="BK28" s="62"/>
+      <c r="BL28" s="79"/>
+      <c r="BM28" s="79"/>
+      <c r="BN28" s="79"/>
+      <c r="BO28" s="79"/>
+      <c r="BP28" s="79"/>
+      <c r="BQ28" s="79"/>
+      <c r="BR28" s="54"/>
     </row>
     <row r="29" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="29"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="77"/>
-      <c r="Q29" s="77"/>
-      <c r="R29" s="77"/>
-      <c r="S29" s="77"/>
-      <c r="T29" s="77"/>
-      <c r="U29" s="77"/>
-      <c r="V29" s="77"/>
-      <c r="W29" s="77"/>
-      <c r="X29" s="77"/>
-      <c r="Y29" s="77"/>
-      <c r="Z29" s="77"/>
-      <c r="AA29" s="77"/>
-      <c r="AB29" s="77"/>
-      <c r="AC29" s="77"/>
-      <c r="AD29" s="77"/>
-      <c r="AE29" s="77"/>
-      <c r="AF29" s="77"/>
-      <c r="AG29" s="77"/>
-      <c r="AH29" s="77"/>
-      <c r="AI29" s="77"/>
-      <c r="AJ29" s="77"/>
-      <c r="AK29" s="77"/>
-      <c r="AL29" s="77"/>
-      <c r="AM29" s="77"/>
-      <c r="AN29" s="77"/>
-      <c r="AO29" s="77"/>
-      <c r="AP29" s="77"/>
-      <c r="AQ29" s="77"/>
-      <c r="AR29" s="77"/>
-      <c r="AS29" s="77"/>
-      <c r="AT29" s="77"/>
-      <c r="AU29" s="77"/>
-      <c r="AV29" s="77"/>
-      <c r="AW29" s="77"/>
-      <c r="AX29" s="77"/>
-      <c r="AY29" s="77"/>
-      <c r="AZ29" s="77"/>
-      <c r="BA29" s="77"/>
-      <c r="BB29" s="77"/>
-      <c r="BC29" s="77"/>
-      <c r="BD29" s="77"/>
-      <c r="BE29" s="77"/>
-      <c r="BF29" s="77"/>
-      <c r="BG29" s="77"/>
-      <c r="BH29" s="77"/>
-      <c r="BI29" s="77"/>
-      <c r="BJ29" s="77"/>
-      <c r="BK29" s="77"/>
-      <c r="BL29" s="77"/>
-      <c r="BM29" s="77"/>
-      <c r="BN29" s="77"/>
-      <c r="BO29" s="77"/>
-      <c r="BP29" s="77"/>
-      <c r="BQ29" s="77"/>
-      <c r="BR29" s="34"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="74"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="74"/>
+      <c r="U29" s="74"/>
+      <c r="V29" s="74"/>
+      <c r="W29" s="74"/>
+      <c r="X29" s="74"/>
+      <c r="Y29" s="74"/>
+      <c r="Z29" s="74"/>
+      <c r="AA29" s="74"/>
+      <c r="AB29" s="74"/>
+      <c r="AC29" s="74"/>
+      <c r="AD29" s="74"/>
+      <c r="AE29" s="74"/>
+      <c r="AF29" s="74"/>
+      <c r="AG29" s="74"/>
+      <c r="AH29" s="74"/>
+      <c r="AI29" s="74"/>
+      <c r="AJ29" s="74"/>
+      <c r="AK29" s="74"/>
+      <c r="AL29" s="74"/>
+      <c r="AM29" s="74"/>
+      <c r="AN29" s="74"/>
+      <c r="AO29" s="74"/>
+      <c r="AP29" s="74"/>
+      <c r="AQ29" s="74"/>
+      <c r="AR29" s="74"/>
+      <c r="AS29" s="74"/>
+      <c r="AT29" s="74"/>
+      <c r="AU29" s="74"/>
+      <c r="AV29" s="74"/>
+      <c r="AW29" s="74"/>
+      <c r="AX29" s="74"/>
+      <c r="AY29" s="74"/>
+      <c r="AZ29" s="74"/>
+      <c r="BA29" s="74"/>
+      <c r="BB29" s="74"/>
+      <c r="BC29" s="74"/>
+      <c r="BD29" s="74"/>
+      <c r="BE29" s="74"/>
+      <c r="BF29" s="74"/>
+      <c r="BG29" s="74"/>
+      <c r="BH29" s="74"/>
+      <c r="BI29" s="74"/>
+      <c r="BJ29" s="74"/>
+      <c r="BK29" s="74"/>
+      <c r="BL29" s="74"/>
+      <c r="BM29" s="74"/>
+      <c r="BN29" s="74"/>
+      <c r="BO29" s="74"/>
+      <c r="BP29" s="74"/>
+      <c r="BQ29" s="74"/>
+      <c r="BR29" s="31"/>
     </row>
     <row r="30" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="29"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="33"/>
-      <c r="AB30" s="33"/>
-      <c r="AC30" s="33"/>
-      <c r="AD30" s="33"/>
-      <c r="AE30" s="33"/>
-      <c r="AF30" s="33"/>
-      <c r="AG30" s="33"/>
-      <c r="AH30" s="33"/>
-      <c r="AI30" s="33"/>
-      <c r="AJ30" s="33"/>
-      <c r="AK30" s="33"/>
-      <c r="AL30" s="33"/>
-      <c r="AM30" s="33"/>
-      <c r="AN30" s="33"/>
-      <c r="AO30" s="33"/>
-      <c r="AP30" s="33"/>
-      <c r="AQ30" s="33"/>
-      <c r="AR30" s="33"/>
-      <c r="AS30" s="33"/>
-      <c r="AT30" s="33"/>
-      <c r="AU30" s="33"/>
-      <c r="AV30" s="33"/>
-      <c r="AW30" s="33"/>
-      <c r="AX30" s="33"/>
-      <c r="AY30" s="33"/>
-      <c r="AZ30" s="33"/>
-      <c r="BA30" s="33"/>
-      <c r="BB30" s="33"/>
-      <c r="BC30" s="33"/>
-      <c r="BD30" s="33"/>
-      <c r="BE30" s="33"/>
-      <c r="BF30" s="33"/>
-      <c r="BG30" s="33"/>
-      <c r="BH30" s="33"/>
-      <c r="BI30" s="33"/>
-      <c r="BJ30" s="33"/>
-      <c r="BK30" s="33"/>
-      <c r="BL30" s="33"/>
-      <c r="BM30" s="33"/>
-      <c r="BN30" s="33"/>
-      <c r="BO30" s="33"/>
-      <c r="BP30" s="33"/>
-      <c r="BQ30" s="33"/>
-      <c r="BR30" s="34"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="30"/>
+      <c r="AE30" s="30"/>
+      <c r="AF30" s="30"/>
+      <c r="AG30" s="30"/>
+      <c r="AH30" s="30"/>
+      <c r="AI30" s="30"/>
+      <c r="AJ30" s="30"/>
+      <c r="AK30" s="30"/>
+      <c r="AL30" s="30"/>
+      <c r="AM30" s="30"/>
+      <c r="AN30" s="30"/>
+      <c r="AO30" s="30"/>
+      <c r="AP30" s="30"/>
+      <c r="AQ30" s="30"/>
+      <c r="AR30" s="30"/>
+      <c r="AS30" s="30"/>
+      <c r="AT30" s="30"/>
+      <c r="AU30" s="30"/>
+      <c r="AV30" s="30"/>
+      <c r="AW30" s="30"/>
+      <c r="AX30" s="30"/>
+      <c r="AY30" s="30"/>
+      <c r="AZ30" s="30"/>
+      <c r="BA30" s="30"/>
+      <c r="BB30" s="30"/>
+      <c r="BC30" s="30"/>
+      <c r="BD30" s="30"/>
+      <c r="BE30" s="30"/>
+      <c r="BF30" s="30"/>
+      <c r="BG30" s="30"/>
+      <c r="BH30" s="30"/>
+      <c r="BI30" s="30"/>
+      <c r="BJ30" s="30"/>
+      <c r="BK30" s="30"/>
+      <c r="BL30" s="30"/>
+      <c r="BM30" s="30"/>
+      <c r="BN30" s="30"/>
+      <c r="BO30" s="30"/>
+      <c r="BP30" s="30"/>
+      <c r="BQ30" s="30"/>
+      <c r="BR30" s="31"/>
     </row>
     <row r="31" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="78"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="79"/>
-      <c r="Q31" s="79"/>
-      <c r="R31" s="79"/>
-      <c r="S31" s="79"/>
-      <c r="T31" s="79"/>
-      <c r="U31" s="79"/>
-      <c r="V31" s="79"/>
-      <c r="W31" s="79"/>
-      <c r="X31" s="79"/>
-      <c r="Y31" s="79"/>
-      <c r="Z31" s="79"/>
-      <c r="AA31" s="79"/>
-      <c r="AB31" s="79"/>
-      <c r="AC31" s="79"/>
-      <c r="AD31" s="79"/>
-      <c r="AE31" s="79"/>
-      <c r="AF31" s="79"/>
-      <c r="AG31" s="79"/>
-      <c r="AH31" s="79"/>
-      <c r="AI31" s="79"/>
-      <c r="AJ31" s="79"/>
-      <c r="AK31" s="79"/>
-      <c r="AL31" s="79"/>
-      <c r="AM31" s="79"/>
-      <c r="AN31" s="79"/>
-      <c r="AO31" s="79"/>
-      <c r="AP31" s="79"/>
-      <c r="AQ31" s="79"/>
-      <c r="AR31" s="79"/>
-      <c r="AS31" s="79"/>
-      <c r="AT31" s="79"/>
-      <c r="AU31" s="79"/>
-      <c r="AV31" s="79"/>
-      <c r="AW31" s="79"/>
-      <c r="AX31" s="79"/>
-      <c r="AY31" s="79"/>
-      <c r="AZ31" s="79"/>
-      <c r="BA31" s="79"/>
-      <c r="BB31" s="79"/>
-      <c r="BC31" s="79"/>
-      <c r="BD31" s="79"/>
-      <c r="BE31" s="79"/>
-      <c r="BF31" s="79"/>
-      <c r="BG31" s="79"/>
-      <c r="BH31" s="79"/>
-      <c r="BI31" s="79"/>
-      <c r="BJ31" s="79"/>
-      <c r="BK31" s="79"/>
-      <c r="BL31" s="79"/>
-      <c r="BM31" s="79"/>
-      <c r="BN31" s="79"/>
-      <c r="BO31" s="79"/>
-      <c r="BP31" s="79"/>
-      <c r="BQ31" s="79"/>
-      <c r="BR31" s="81"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="76"/>
+      <c r="Q31" s="76"/>
+      <c r="R31" s="76"/>
+      <c r="S31" s="76"/>
+      <c r="T31" s="76"/>
+      <c r="U31" s="76"/>
+      <c r="V31" s="76"/>
+      <c r="W31" s="76"/>
+      <c r="X31" s="76"/>
+      <c r="Y31" s="76"/>
+      <c r="Z31" s="76"/>
+      <c r="AA31" s="76"/>
+      <c r="AB31" s="76"/>
+      <c r="AC31" s="76"/>
+      <c r="AD31" s="76"/>
+      <c r="AE31" s="76"/>
+      <c r="AF31" s="76"/>
+      <c r="AG31" s="76"/>
+      <c r="AH31" s="76"/>
+      <c r="AI31" s="76"/>
+      <c r="AJ31" s="76"/>
+      <c r="AK31" s="76"/>
+      <c r="AL31" s="76"/>
+      <c r="AM31" s="76"/>
+      <c r="AN31" s="76"/>
+      <c r="AO31" s="76"/>
+      <c r="AP31" s="76"/>
+      <c r="AQ31" s="76"/>
+      <c r="AR31" s="76"/>
+      <c r="AS31" s="76"/>
+      <c r="AT31" s="76"/>
+      <c r="AU31" s="76"/>
+      <c r="AV31" s="76"/>
+      <c r="AW31" s="76"/>
+      <c r="AX31" s="76"/>
+      <c r="AY31" s="76"/>
+      <c r="AZ31" s="76"/>
+      <c r="BA31" s="76"/>
+      <c r="BB31" s="76"/>
+      <c r="BC31" s="76"/>
+      <c r="BD31" s="76"/>
+      <c r="BE31" s="76"/>
+      <c r="BF31" s="76"/>
+      <c r="BG31" s="76"/>
+      <c r="BH31" s="76"/>
+      <c r="BI31" s="76"/>
+      <c r="BJ31" s="76"/>
+      <c r="BK31" s="76"/>
+      <c r="BL31" s="76"/>
+      <c r="BM31" s="76"/>
+      <c r="BN31" s="76"/>
+      <c r="BO31" s="76"/>
+      <c r="BP31" s="76"/>
+      <c r="BQ31" s="76"/>
+      <c r="BR31" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/Gantt chart- Assignment 1 - Ben Ho.xlsx
+++ b/Gantt chart- Assignment 1 - Ben Ho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benho/Desktop/MSc Data Science/CETM46/github/product_design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF557455-2C02-6446-9363-454E5D2D8CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C57B1F7-2021-8640-B639-C4002CE183BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,7 +935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1165,6 +1165,9 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1211,9 +1214,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1233,6 +1233,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2415,7 +2416,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F8" sqref="F8:F10"/>
+      <selection pane="topRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2507,49 +2508,49 @@
     </row>
     <row r="2" spans="1:70" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12"/>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
       <c r="H2" s="13"/>
-      <c r="I2" s="95" t="s">
+      <c r="I2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
       <c r="Q2" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
-      <c r="Z2" s="96"/>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="96"/>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="96"/>
-      <c r="AF2" s="96"/>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="96"/>
-      <c r="AI2" s="96"/>
-      <c r="AJ2" s="96"/>
-      <c r="AK2" s="96"/>
-      <c r="AL2" s="96"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
       <c r="AM2" s="14"/>
       <c r="AN2" s="14"/>
       <c r="AO2" s="14"/>
@@ -2669,33 +2670,33 @@
       <c r="G4" s="100"/>
       <c r="H4" s="23"/>
       <c r="I4" s="103"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
       <c r="R4" s="104"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="82"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="82"/>
-      <c r="AD4" s="82"/>
-      <c r="AE4" s="82"/>
-      <c r="AF4" s="82"/>
-      <c r="AG4" s="82"/>
-      <c r="AH4" s="82"/>
-      <c r="AI4" s="82"/>
-      <c r="AJ4" s="82"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="83"/>
+      <c r="AE4" s="83"/>
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="83"/>
+      <c r="AI4" s="83"/>
+      <c r="AJ4" s="83"/>
       <c r="AK4" s="24"/>
       <c r="AL4" s="22"/>
       <c r="AM4" s="22"/>
@@ -2733,44 +2734,44 @@
     </row>
     <row r="5" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="85"/>
+      <c r="C5" s="86"/>
       <c r="D5" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
       <c r="H5" s="23"/>
       <c r="I5" s="103"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
       <c r="R5" s="105"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="82"/>
-      <c r="AC5" s="82"/>
-      <c r="AD5" s="82"/>
-      <c r="AE5" s="82"/>
-      <c r="AF5" s="82"/>
-      <c r="AG5" s="82"/>
-      <c r="AH5" s="82"/>
-      <c r="AI5" s="82"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="83"/>
+      <c r="AF5" s="83"/>
+      <c r="AG5" s="83"/>
+      <c r="AH5" s="83"/>
+      <c r="AI5" s="83"/>
       <c r="AJ5" s="106"/>
       <c r="AK5" s="24"/>
       <c r="AL5" s="15"/>
@@ -2953,283 +2954,283 @@
     </row>
     <row r="8" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="26"/>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="81" t="s">
+      <c r="G8" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="87" t="s">
+      <c r="I8" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="88"/>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="88"/>
-      <c r="AB8" s="88"/>
-      <c r="AC8" s="88"/>
-      <c r="AD8" s="88"/>
-      <c r="AE8" s="88"/>
-      <c r="AF8" s="88"/>
-      <c r="AG8" s="88"/>
-      <c r="AH8" s="88"/>
-      <c r="AI8" s="88"/>
-      <c r="AJ8" s="88"/>
-      <c r="AK8" s="88"/>
-      <c r="AL8" s="88"/>
-      <c r="AM8" s="93" t="s">
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="89"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="89"/>
+      <c r="AD8" s="89"/>
+      <c r="AE8" s="89"/>
+      <c r="AF8" s="89"/>
+      <c r="AG8" s="89"/>
+      <c r="AH8" s="89"/>
+      <c r="AI8" s="89"/>
+      <c r="AJ8" s="89"/>
+      <c r="AK8" s="89"/>
+      <c r="AL8" s="89"/>
+      <c r="AM8" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="AN8" s="93"/>
-      <c r="AO8" s="93"/>
-      <c r="AP8" s="93"/>
-      <c r="AQ8" s="93"/>
-      <c r="AR8" s="93"/>
-      <c r="AS8" s="93"/>
-      <c r="AT8" s="93"/>
-      <c r="AU8" s="93"/>
-      <c r="AV8" s="93"/>
-      <c r="AW8" s="93"/>
-      <c r="AX8" s="93"/>
-      <c r="AY8" s="93"/>
-      <c r="AZ8" s="93"/>
-      <c r="BA8" s="93"/>
-      <c r="BB8" s="93"/>
-      <c r="BC8" s="93"/>
-      <c r="BD8" s="93"/>
-      <c r="BE8" s="93"/>
-      <c r="BF8" s="93"/>
-      <c r="BG8" s="93"/>
-      <c r="BH8" s="93"/>
-      <c r="BI8" s="93"/>
-      <c r="BJ8" s="93"/>
-      <c r="BK8" s="93"/>
-      <c r="BL8" s="93"/>
-      <c r="BM8" s="93"/>
-      <c r="BN8" s="93"/>
-      <c r="BO8" s="93"/>
-      <c r="BP8" s="93"/>
-      <c r="BQ8" s="94"/>
+      <c r="AN8" s="94"/>
+      <c r="AO8" s="94"/>
+      <c r="AP8" s="94"/>
+      <c r="AQ8" s="94"/>
+      <c r="AR8" s="94"/>
+      <c r="AS8" s="94"/>
+      <c r="AT8" s="94"/>
+      <c r="AU8" s="94"/>
+      <c r="AV8" s="94"/>
+      <c r="AW8" s="94"/>
+      <c r="AX8" s="94"/>
+      <c r="AY8" s="94"/>
+      <c r="AZ8" s="94"/>
+      <c r="BA8" s="94"/>
+      <c r="BB8" s="94"/>
+      <c r="BC8" s="94"/>
+      <c r="BD8" s="94"/>
+      <c r="BE8" s="94"/>
+      <c r="BF8" s="94"/>
+      <c r="BG8" s="94"/>
+      <c r="BH8" s="94"/>
+      <c r="BI8" s="94"/>
+      <c r="BJ8" s="94"/>
+      <c r="BK8" s="94"/>
+      <c r="BL8" s="94"/>
+      <c r="BM8" s="94"/>
+      <c r="BN8" s="94"/>
+      <c r="BO8" s="94"/>
+      <c r="BP8" s="94"/>
+      <c r="BQ8" s="95"/>
       <c r="BR8" s="32"/>
     </row>
     <row r="9" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="33"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="89" t="s">
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89" t="s">
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="89"/>
-      <c r="T9" s="89"/>
-      <c r="U9" s="89" t="s">
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="V9" s="89"/>
-      <c r="W9" s="89"/>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="89"/>
-      <c r="AB9" s="89" t="s">
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="AC9" s="89"/>
-      <c r="AD9" s="89"/>
-      <c r="AE9" s="89"/>
-      <c r="AF9" s="89"/>
-      <c r="AG9" s="89"/>
-      <c r="AH9" s="89"/>
-      <c r="AI9" s="89" t="s">
+      <c r="AC9" s="90"/>
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="90"/>
+      <c r="AF9" s="90"/>
+      <c r="AG9" s="90"/>
+      <c r="AH9" s="90"/>
+      <c r="AI9" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="AJ9" s="89"/>
-      <c r="AK9" s="89"/>
-      <c r="AL9" s="89"/>
-      <c r="AM9" s="91" t="s">
+      <c r="AJ9" s="90"/>
+      <c r="AK9" s="90"/>
+      <c r="AL9" s="90"/>
+      <c r="AM9" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="AN9" s="91"/>
-      <c r="AO9" s="92"/>
-      <c r="AP9" s="90" t="s">
+      <c r="AN9" s="92"/>
+      <c r="AO9" s="93"/>
+      <c r="AP9" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="AQ9" s="91"/>
-      <c r="AR9" s="91"/>
-      <c r="AS9" s="91"/>
-      <c r="AT9" s="91"/>
-      <c r="AU9" s="91"/>
-      <c r="AV9" s="92"/>
-      <c r="AW9" s="90" t="s">
+      <c r="AQ9" s="92"/>
+      <c r="AR9" s="92"/>
+      <c r="AS9" s="92"/>
+      <c r="AT9" s="92"/>
+      <c r="AU9" s="92"/>
+      <c r="AV9" s="93"/>
+      <c r="AW9" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="AX9" s="91"/>
-      <c r="AY9" s="91"/>
-      <c r="AZ9" s="91"/>
-      <c r="BA9" s="91"/>
-      <c r="BB9" s="91"/>
-      <c r="BC9" s="92"/>
-      <c r="BD9" s="90" t="s">
+      <c r="AX9" s="92"/>
+      <c r="AY9" s="92"/>
+      <c r="AZ9" s="92"/>
+      <c r="BA9" s="92"/>
+      <c r="BB9" s="92"/>
+      <c r="BC9" s="93"/>
+      <c r="BD9" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="BE9" s="91"/>
-      <c r="BF9" s="91"/>
-      <c r="BG9" s="91"/>
-      <c r="BH9" s="91"/>
-      <c r="BI9" s="91"/>
-      <c r="BJ9" s="92"/>
-      <c r="BK9" s="90" t="s">
+      <c r="BE9" s="92"/>
+      <c r="BF9" s="92"/>
+      <c r="BG9" s="92"/>
+      <c r="BH9" s="92"/>
+      <c r="BI9" s="92"/>
+      <c r="BJ9" s="93"/>
+      <c r="BK9" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="BL9" s="91"/>
-      <c r="BM9" s="91"/>
-      <c r="BN9" s="91"/>
-      <c r="BO9" s="91"/>
-      <c r="BP9" s="91"/>
-      <c r="BQ9" s="92"/>
+      <c r="BL9" s="92"/>
+      <c r="BM9" s="92"/>
+      <c r="BN9" s="92"/>
+      <c r="BO9" s="92"/>
+      <c r="BP9" s="92"/>
+      <c r="BQ9" s="93"/>
       <c r="BR9" s="34"/>
     </row>
     <row r="10" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="35"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="80" t="s">
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="80" t="s">
+      <c r="J10" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="80" t="s">
+      <c r="K10" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="80" t="s">
+      <c r="L10" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="80" t="s">
+      <c r="M10" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N10" s="80" t="s">
+      <c r="N10" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="80" t="s">
+      <c r="O10" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="80" t="s">
+      <c r="P10" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="Q10" s="80" t="s">
+      <c r="Q10" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="R10" s="80" t="s">
+      <c r="R10" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="S10" s="80" t="s">
+      <c r="S10" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="T10" s="80" t="s">
+      <c r="T10" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="U10" s="80" t="s">
+      <c r="U10" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="V10" s="80" t="s">
+      <c r="V10" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="W10" s="80" t="s">
+      <c r="W10" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="X10" s="80" t="s">
+      <c r="X10" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="Y10" s="80" t="s">
+      <c r="Y10" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="Z10" s="80" t="s">
+      <c r="Z10" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="AA10" s="80" t="s">
+      <c r="AA10" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="AB10" s="80" t="s">
+      <c r="AB10" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="AC10" s="80" t="s">
+      <c r="AC10" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="AD10" s="80" t="s">
+      <c r="AD10" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="AE10" s="80" t="s">
+      <c r="AE10" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="AF10" s="80" t="s">
+      <c r="AF10" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="AG10" s="80" t="s">
+      <c r="AG10" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="AH10" s="80" t="s">
+      <c r="AH10" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="AI10" s="80" t="s">
+      <c r="AI10" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="AJ10" s="80" t="s">
+      <c r="AJ10" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="AK10" s="80" t="s">
+      <c r="AK10" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="AL10" s="80" t="s">
+      <c r="AL10" s="81" t="s">
         <v>67</v>
       </c>
       <c r="AM10" s="36" t="s">
@@ -4218,11 +4219,11 @@
       <c r="AJ21" s="52"/>
       <c r="AK21" s="52"/>
       <c r="AL21" s="52"/>
-      <c r="AM21" s="79"/>
-      <c r="AN21" s="79"/>
-      <c r="AO21" s="79"/>
-      <c r="AP21" s="79"/>
-      <c r="AQ21" s="79"/>
+      <c r="AM21" s="80"/>
+      <c r="AN21" s="80"/>
+      <c r="AO21" s="80"/>
+      <c r="AP21" s="80"/>
+      <c r="AQ21" s="80"/>
       <c r="AR21" s="62"/>
       <c r="AS21" s="62"/>
       <c r="AT21" s="62"/>
@@ -4310,8 +4311,8 @@
       <c r="AO22" s="52"/>
       <c r="AP22" s="62"/>
       <c r="AQ22" s="62"/>
-      <c r="AR22" s="79"/>
-      <c r="AS22" s="79"/>
+      <c r="AR22" s="80"/>
+      <c r="AS22" s="80"/>
       <c r="AT22" s="62"/>
       <c r="AU22" s="62"/>
       <c r="AV22" s="62"/>
@@ -4399,14 +4400,14 @@
       <c r="AQ23" s="62"/>
       <c r="AR23" s="62"/>
       <c r="AS23" s="62"/>
-      <c r="AT23" s="79"/>
-      <c r="AU23" s="79"/>
-      <c r="AV23" s="79"/>
-      <c r="AW23" s="79"/>
-      <c r="AX23" s="79"/>
-      <c r="AY23" s="79"/>
-      <c r="AZ23" s="79"/>
-      <c r="BA23" s="79"/>
+      <c r="AT23" s="80"/>
+      <c r="AU23" s="80"/>
+      <c r="AV23" s="80"/>
+      <c r="AW23" s="80"/>
+      <c r="AX23" s="80"/>
+      <c r="AY23" s="80"/>
+      <c r="AZ23" s="80"/>
+      <c r="BA23" s="80"/>
       <c r="BB23" s="52"/>
       <c r="BC23" s="52"/>
       <c r="BD23" s="62"/>
@@ -4494,9 +4495,9 @@
       <c r="AY24" s="52"/>
       <c r="AZ24" s="52"/>
       <c r="BA24" s="52"/>
-      <c r="BB24" s="79"/>
-      <c r="BC24" s="79"/>
-      <c r="BD24" s="79"/>
+      <c r="BB24" s="80"/>
+      <c r="BC24" s="80"/>
+      <c r="BD24" s="80"/>
       <c r="BE24" s="62"/>
       <c r="BF24" s="62"/>
       <c r="BG24" s="62"/>
@@ -4660,11 +4661,11 @@
       <c r="BB26" s="52"/>
       <c r="BC26" s="52"/>
       <c r="BD26" s="52"/>
-      <c r="BE26" s="79"/>
-      <c r="BF26" s="79"/>
-      <c r="BG26" s="79"/>
-      <c r="BH26" s="79"/>
-      <c r="BI26" s="79"/>
+      <c r="BE26" s="80"/>
+      <c r="BF26" s="80"/>
+      <c r="BG26" s="80"/>
+      <c r="BH26" s="80"/>
+      <c r="BI26" s="80"/>
       <c r="BJ26" s="52"/>
       <c r="BK26" s="52"/>
       <c r="BL26" s="52"/>
@@ -4752,8 +4753,8 @@
       <c r="BG27" s="62"/>
       <c r="BH27" s="62"/>
       <c r="BI27" s="62"/>
-      <c r="BJ27" s="79"/>
-      <c r="BK27" s="79"/>
+      <c r="BJ27" s="80"/>
+      <c r="BK27" s="80"/>
       <c r="BL27" s="62"/>
       <c r="BM27" s="62"/>
       <c r="BN27" s="52"/>
@@ -4841,12 +4842,12 @@
       <c r="BI28" s="62"/>
       <c r="BJ28" s="62"/>
       <c r="BK28" s="62"/>
-      <c r="BL28" s="79"/>
-      <c r="BM28" s="79"/>
-      <c r="BN28" s="79"/>
-      <c r="BO28" s="79"/>
-      <c r="BP28" s="79"/>
-      <c r="BQ28" s="79"/>
+      <c r="BL28" s="80"/>
+      <c r="BM28" s="80"/>
+      <c r="BN28" s="80"/>
+      <c r="BO28" s="80"/>
+      <c r="BP28" s="80"/>
+      <c r="BQ28" s="80"/>
       <c r="BR28" s="54"/>
     </row>
     <row r="29" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -5066,9 +5067,8 @@
       <c r="BR31" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="29">
     <mergeCell ref="I2:P2"/>
-    <mergeCell ref="B2:G2"/>
     <mergeCell ref="I5:Q5"/>
     <mergeCell ref="R5:AI5"/>
     <mergeCell ref="Q2:AL2"/>
